--- a/National/Visualization/Infografias/Estrategias_PoliticaCriminal.xlsx
+++ b/National/Visualization/Infografias/Estrategias_PoliticaCriminal.xlsx
@@ -1,21 +1,392 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/mexico/MEX Research Team/FEDERAL AWARDS/ENPOL/Data/National/Visualization/Infografias/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_D3B3DA483E0A3B7354B8C2AD34E9856CA736F38E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C04792E7-392D-054E-91A2-C190F5523613}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>6.1a</t>
+  </si>
+  <si>
+    <t>6.2a</t>
+  </si>
+  <si>
+    <t>6.3a</t>
+  </si>
+  <si>
+    <t>6.4a</t>
+  </si>
+  <si>
+    <t>7.1a</t>
+  </si>
+  <si>
+    <t>7.2a</t>
+  </si>
+  <si>
+    <t>7.3a</t>
+  </si>
+  <si>
+    <t>7.4a</t>
+  </si>
+  <si>
+    <t>7.5a</t>
+  </si>
+  <si>
+    <t>7.6a</t>
+  </si>
+  <si>
+    <t>7.7a</t>
+  </si>
+  <si>
+    <t>8.1a</t>
+  </si>
+  <si>
+    <t>8.2a</t>
+  </si>
+  <si>
+    <t>9.1a</t>
+  </si>
+  <si>
+    <t>10.1a</t>
+  </si>
+  <si>
+    <t>10.2a</t>
+  </si>
+  <si>
+    <t>10.3a</t>
+  </si>
+  <si>
+    <t>10.4a</t>
+  </si>
+  <si>
+    <t>11.1a</t>
+  </si>
+  <si>
+    <t>11.2a</t>
+  </si>
+  <si>
+    <t>12.1a</t>
+  </si>
+  <si>
+    <t>12.2a</t>
+  </si>
+  <si>
+    <t>12.3a</t>
+  </si>
+  <si>
+    <t>13.1a</t>
+  </si>
+  <si>
+    <t>13.2a</t>
+  </si>
+  <si>
+    <t>13.3a</t>
+  </si>
+  <si>
+    <t>13.4a</t>
+  </si>
+  <si>
+    <t>13.5a</t>
+  </si>
+  <si>
+    <t>14.1a</t>
+  </si>
+  <si>
+    <t>14.2a</t>
+  </si>
+  <si>
+    <t>14.3a</t>
+  </si>
+  <si>
+    <t>14.4a</t>
+  </si>
+  <si>
+    <t>15.1a</t>
+  </si>
+  <si>
+    <t>15.2a</t>
+  </si>
+  <si>
+    <t>15.3a</t>
+  </si>
+  <si>
+    <t>15.4a</t>
+  </si>
+  <si>
+    <t>15.5a</t>
+  </si>
+  <si>
+    <t>16.1a</t>
+  </si>
+  <si>
+    <t>16.2a</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>6.1b</t>
+  </si>
+  <si>
+    <t>6.2b</t>
+  </si>
+  <si>
+    <t>6.3b</t>
+  </si>
+  <si>
+    <t>6.4b</t>
+  </si>
+  <si>
+    <t>7.1b</t>
+  </si>
+  <si>
+    <t>7.2b</t>
+  </si>
+  <si>
+    <t>7.3b</t>
+  </si>
+  <si>
+    <t>7.4b</t>
+  </si>
+  <si>
+    <t>7.5b</t>
+  </si>
+  <si>
+    <t>7.6b</t>
+  </si>
+  <si>
+    <t>7.7b</t>
+  </si>
+  <si>
+    <t>8.1b</t>
+  </si>
+  <si>
+    <t>8.2b</t>
+  </si>
+  <si>
+    <t>9.1b</t>
+  </si>
+  <si>
+    <t>10.1b</t>
+  </si>
+  <si>
+    <t>10.2b</t>
+  </si>
+  <si>
+    <t>10.3b</t>
+  </si>
+  <si>
+    <t>10.4b</t>
+  </si>
+  <si>
+    <t>11.1b</t>
+  </si>
+  <si>
+    <t>11.2b</t>
+  </si>
+  <si>
+    <t>12.1b</t>
+  </si>
+  <si>
+    <t>12.2b</t>
+  </si>
+  <si>
+    <t>12.3b</t>
+  </si>
+  <si>
+    <t>13.1b</t>
+  </si>
+  <si>
+    <t>13.2b</t>
+  </si>
+  <si>
+    <t>13.3b</t>
+  </si>
+  <si>
+    <t>13.4b</t>
+  </si>
+  <si>
+    <t>13.5b</t>
+  </si>
+  <si>
+    <t>14.1b</t>
+  </si>
+  <si>
+    <t>14.2b</t>
+  </si>
+  <si>
+    <t>14.3b</t>
+  </si>
+  <si>
+    <t>14.4b</t>
+  </si>
+  <si>
+    <t>15.1b</t>
+  </si>
+  <si>
+    <t>15.2b</t>
+  </si>
+  <si>
+    <t>15.3b</t>
+  </si>
+  <si>
+    <t>15.4b</t>
+  </si>
+  <si>
+    <t>15.5b</t>
+  </si>
+  <si>
+    <t>16.1b</t>
+  </si>
+  <si>
+    <t>16.2b</t>
+  </si>
+  <si>
+    <t>Aguascalientes</t>
+  </si>
+  <si>
+    <t>Baja California</t>
+  </si>
+  <si>
+    <t>Baja California Sur</t>
+  </si>
+  <si>
+    <t>Campeche</t>
+  </si>
+  <si>
+    <t>Chiapas</t>
+  </si>
+  <si>
+    <t>Chihuahua</t>
+  </si>
+  <si>
+    <t>Coahuila de Zaragoza</t>
+  </si>
+  <si>
+    <t>Colima</t>
+  </si>
+  <si>
+    <t>Distrito Federal</t>
+  </si>
+  <si>
+    <t>Durango</t>
+  </si>
+  <si>
+    <t>Guanajuato</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>Hidalgo</t>
+  </si>
+  <si>
+    <t>Jalisco</t>
+  </si>
+  <si>
+    <t>Michoacán de Ocampo</t>
+  </si>
+  <si>
+    <t>Morelos</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Nayarit</t>
+  </si>
+  <si>
+    <t>Nuevo León</t>
+  </si>
+  <si>
+    <t>Oaxaca</t>
+  </si>
+  <si>
+    <t>Puebla</t>
+  </si>
+  <si>
+    <t>Querétaro</t>
+  </si>
+  <si>
+    <t>Quintana Roo</t>
+  </si>
+  <si>
+    <t>San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Sinaloa</t>
+  </si>
+  <si>
+    <t>Sonora</t>
+  </si>
+  <si>
+    <t>Tabasco</t>
+  </si>
+  <si>
+    <t>Tamaulipas</t>
+  </si>
+  <si>
+    <t>Tlaxcala</t>
+  </si>
+  <si>
+    <t>Veracruz de Ignacio de la Llave</t>
+  </si>
+  <si>
+    <t>Yucatán</t>
+  </si>
+  <si>
+    <t>Zacatecas</t>
+  </si>
+  <si>
+    <t>Promedio Nacional</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +434,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +486,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +520,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +555,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,584 +731,410 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Estado</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>1a</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2a</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>3a</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>4a</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>6.1a</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>6.2a</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>6.3a</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>6.4a</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>7.1a</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>7.2a</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>7.3a</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>7.4a</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>7.5a</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>7.6a</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>7.7a</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>8.1a</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>8.2a</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>9.1a</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>10.1a</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>10.2a</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>10.3a</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>10.4a</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>11.1a</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>11.2a</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>12.1a</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>12.2a</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>12.3a</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>13.1a</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>13.2a</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>13.3a</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>13.4a</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>13.5a</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>14.1a</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>14.2a</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>14.3a</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>14.4a</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>15.1a</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>15.2a</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>15.3a</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>15.4a</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>15.5a</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>16.1a</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>16.2a</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>1b</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>2b</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>3b</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>4b</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>6.1b</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>6.2b</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>6.3b</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>6.4b</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>7.1b</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>7.2b</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>7.3b</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>7.4b</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>7.5b</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>7.6b</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>7.7b</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>8.1b</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>8.2b</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>9.1b</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>10.1b</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>10.2b</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>10.3b</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>10.4b</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>11.1b</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>11.2b</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>12.1b</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>12.2b</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>12.3b</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>13.1b</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>13.2b</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>13.3b</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>13.4b</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>13.5b</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>14.1b</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>14.2b</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>14.3b</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>14.4b</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>15.1b</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>15.2b</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>15.3b</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>15.4b</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>15.5b</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>16.1b</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>16.2b</t>
-        </is>
+    <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Aguascalientes</t>
-        </is>
+    <row r="2" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>87</v>
       </c>
       <c r="B2">
-        <v>0.9696969696969697</v>
+        <v>0.96969696969696972</v>
       </c>
       <c r="C2">
-        <v>0.3439490445859872</v>
+        <v>0.34394904458598718</v>
       </c>
       <c r="D2">
-        <v>0.391044776119403</v>
+        <v>0.39104477611940303</v>
       </c>
       <c r="E2">
-        <v>0.2876712328767123</v>
+        <v>0.28767123287671231</v>
       </c>
       <c r="F2">
         <v>277</v>
       </c>
       <c r="G2">
-        <v>0.5773387588679945</v>
+        <v>0.57733875886799446</v>
       </c>
       <c r="H2">
         <v>8156</v>
       </c>
       <c r="I2">
-        <v>0.01929573502521304</v>
+        <v>1.9295735025213041E-2</v>
       </c>
       <c r="J2">
-        <v>0.1022727272727273</v>
+        <v>0.10227272727272731</v>
       </c>
       <c r="K2">
-        <v>0.01988636363636364</v>
+        <v>1.988636363636364E-2</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.07954545454545454</v>
+        <v>7.9545454545454544E-2</v>
       </c>
       <c r="N2">
-        <v>0.1988636363636364</v>
+        <v>0.19886363636363641</v>
       </c>
       <c r="O2">
-        <v>0.008522727272727272</v>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="P2">
-        <v>0.1335227272727273</v>
+        <v>0.13352272727272729</v>
       </c>
       <c r="Q2">
-        <v>0.79050736497545</v>
+        <v>0.79050736497545004</v>
       </c>
       <c r="R2">
-        <v>0.1800327332242226</v>
+        <v>0.18003273322422261</v>
       </c>
       <c r="S2">
         <v>0.25</v>
       </c>
       <c r="T2">
-        <v>0.2961783439490446</v>
+        <v>0.29617834394904458</v>
       </c>
       <c r="U2">
-        <v>0.2563694267515924</v>
+        <v>0.25636942675159241</v>
       </c>
       <c r="V2">
-        <v>0.3439490445859872</v>
+        <v>0.34394904458598718</v>
       </c>
       <c r="W2">
         <v>0.1035031847133758</v>
       </c>
       <c r="X2">
-        <v>0.5167464114832536</v>
+        <v>0.51674641148325362</v>
       </c>
       <c r="Y2">
-        <v>0.5050505050505051</v>
+        <v>0.50505050505050508</v>
       </c>
       <c r="Z2">
         <v>0.3045977011494253</v>
       </c>
       <c r="AA2">
-        <v>0.2787356321839081</v>
+        <v>0.27873563218390812</v>
       </c>
       <c r="AB2">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="AC2">
-        <v>0.4672364672364672</v>
+        <v>0.46723646723646722</v>
       </c>
       <c r="AD2">
-        <v>0.3190883190883191</v>
+        <v>0.31908831908831908</v>
       </c>
       <c r="AE2">
-        <v>0.09686609686609686</v>
+        <v>9.686609686609686E-2</v>
       </c>
       <c r="AF2">
-        <v>0.05413105413105413</v>
+        <v>5.4131054131054131E-2</v>
       </c>
       <c r="AG2">
-        <v>0.06267806267806268</v>
+        <v>6.2678062678062682E-2</v>
       </c>
       <c r="AH2">
-        <v>0.8924731182795699</v>
+        <v>0.89247311827956988</v>
       </c>
       <c r="AI2">
-        <v>0.8198757763975155</v>
+        <v>0.81987577639751552</v>
       </c>
       <c r="AJ2">
-        <v>0.6851851851851852</v>
+        <v>0.68518518518518523</v>
       </c>
       <c r="AK2">
-        <v>0.8307692307692308</v>
+        <v>0.83076923076923082</v>
       </c>
       <c r="AL2">
-        <v>0.5661764705882353</v>
+        <v>0.56617647058823528</v>
       </c>
       <c r="AM2">
-        <v>0.4566666666666667</v>
+        <v>0.45666666666666672</v>
       </c>
       <c r="AN2">
-        <v>0.1233333333333333</v>
+        <v>0.12333333333333329</v>
       </c>
       <c r="AO2">
-        <v>0.597972972972973</v>
+        <v>0.59797297297297303</v>
       </c>
       <c r="AP2">
-        <v>0.4715719063545151</v>
+        <v>0.47157190635451512</v>
       </c>
       <c r="AQ2">
-        <v>0.2448979591836735</v>
+        <v>0.24489795918367349</v>
       </c>
       <c r="AR2">
-        <v>0.4463519313304721</v>
+        <v>0.44635193133047207</v>
       </c>
       <c r="AS2">
         <v>1</v>
@@ -1059,71 +1266,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Baja California</t>
-        </is>
+    <row r="3" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>88</v>
       </c>
       <c r="B3">
-        <v>0.9917763157894737</v>
+        <v>0.99177631578947367</v>
       </c>
       <c r="C3">
         <v>0.3089832181638697</v>
       </c>
       <c r="D3">
-        <v>0.2864768683274022</v>
+        <v>0.28647686832740221</v>
       </c>
       <c r="E3">
-        <v>0.2672616251761391</v>
+        <v>0.26726162517613911</v>
       </c>
       <c r="F3">
         <v>9718</v>
       </c>
       <c r="G3">
-        <v>0.09655541300201272</v>
+        <v>9.6555413002012716E-2</v>
       </c>
       <c r="H3">
         <v>46955</v>
       </c>
       <c r="I3">
-        <v>0.01897903814409095</v>
+        <v>1.8979038144090951E-2</v>
       </c>
       <c r="J3">
         <v>0.1239242685025818</v>
       </c>
       <c r="K3">
-        <v>0.01721170395869191</v>
+        <v>1.7211703958691909E-2</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.05679862306368331</v>
+        <v>5.6798623063683308E-2</v>
       </c>
       <c r="N3">
-        <v>0.0981067125645439</v>
+        <v>9.8106712564543896E-2</v>
       </c>
       <c r="O3">
-        <v>0.003442340791738382</v>
+        <v>3.4423407917383818E-3</v>
       </c>
       <c r="P3">
         <v>0.161790017211704</v>
       </c>
       <c r="Q3">
-        <v>0.8705035971223022</v>
+        <v>0.87050359712230219</v>
       </c>
       <c r="R3">
-        <v>0.1112709832134293</v>
+        <v>0.11127098321342931</v>
       </c>
       <c r="S3">
         <v>0.5393258426966292</v>
       </c>
       <c r="T3">
-        <v>0.4383020730503455</v>
+        <v>0.43830207305034552</v>
       </c>
       <c r="U3">
-        <v>0.1283316880552813</v>
+        <v>0.12833168805528131</v>
       </c>
       <c r="V3">
         <v>0.3089832181638697</v>
@@ -1132,10 +1337,10 @@
         <v>0.1243830207305035</v>
       </c>
       <c r="X3">
-        <v>0.3566468253968254</v>
+        <v>0.35664682539682541</v>
       </c>
       <c r="Y3">
-        <v>0.3845360824742268</v>
+        <v>0.38453608247422683</v>
       </c>
       <c r="Z3">
         <v>0.1954624781849913</v>
@@ -1147,49 +1352,49 @@
         <v>0.5706806282722513</v>
       </c>
       <c r="AC3">
-        <v>0.38860103626943</v>
+        <v>0.38860103626942999</v>
       </c>
       <c r="AD3">
-        <v>0.4110535405872193</v>
+        <v>0.41105354058721932</v>
       </c>
       <c r="AE3">
-        <v>0.07772020725388601</v>
+        <v>7.7720207253886009E-2</v>
       </c>
       <c r="AF3">
-        <v>0.02936096718480138</v>
+        <v>2.9360967184801381E-2</v>
       </c>
       <c r="AG3">
-        <v>0.09326424870466321</v>
+        <v>9.3264248704663211E-2</v>
       </c>
       <c r="AH3">
-        <v>0.6846846846846847</v>
+        <v>0.68468468468468469</v>
       </c>
       <c r="AI3">
         <v>0.7038461538461539</v>
       </c>
       <c r="AJ3">
-        <v>0.5351437699680511</v>
+        <v>0.53514376996805113</v>
       </c>
       <c r="AK3">
-        <v>0.6984126984126984</v>
+        <v>0.69841269841269837</v>
       </c>
       <c r="AL3">
-        <v>0.6612426035502958</v>
+        <v>0.66124260355029585</v>
       </c>
       <c r="AM3">
-        <v>0.5033557046979866</v>
+        <v>0.50335570469798663</v>
       </c>
       <c r="AN3">
-        <v>0.1644204851752022</v>
+        <v>0.16442048517520219</v>
       </c>
       <c r="AO3">
-        <v>0.2506738544474393</v>
+        <v>0.25067385444743928</v>
       </c>
       <c r="AP3">
-        <v>0.4059139784946236</v>
+        <v>0.40591397849462357</v>
       </c>
       <c r="AQ3">
-        <v>0.2616822429906542</v>
+        <v>0.26168224299065418</v>
       </c>
       <c r="AR3">
         <v>0.2857142857142857</v>
@@ -1324,62 +1529,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Baja California Sur</t>
-        </is>
+    <row r="4" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>89</v>
       </c>
       <c r="B4">
-        <v>0.9944444444444445</v>
+        <v>0.99444444444444446</v>
       </c>
       <c r="C4">
-        <v>0.4335106382978723</v>
+        <v>0.43351063829787229</v>
       </c>
       <c r="D4">
-        <v>0.2110091743119266</v>
+        <v>0.21100917431192659</v>
       </c>
       <c r="E4">
-        <v>0.3065326633165829</v>
+        <v>0.30653266331658291</v>
       </c>
       <c r="F4">
         <v>336</v>
       </c>
       <c r="G4">
-        <v>0.3039224134479036</v>
+        <v>0.30392241344790361</v>
       </c>
       <c r="H4">
         <v>3100</v>
       </c>
       <c r="I4">
-        <v>0.01259069734667</v>
+        <v>1.259069734667E-2</v>
       </c>
       <c r="J4">
-        <v>0.1318181818181818</v>
+        <v>0.13181818181818181</v>
       </c>
       <c r="K4">
-        <v>0.00909090909090909</v>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.07272727272727272</v>
+        <v>7.2727272727272724E-2</v>
       </c>
       <c r="N4">
-        <v>0.07727272727272727</v>
+        <v>7.7272727272727271E-2</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.05909090909090909</v>
+        <v>5.909090909090909E-2</v>
       </c>
       <c r="Q4">
-        <v>0.8894601542416453</v>
+        <v>0.88946015424164526</v>
       </c>
       <c r="R4">
-        <v>0.08483290488431877</v>
+        <v>8.4832904884318772E-2</v>
       </c>
       <c r="S4">
         <v>0.6</v>
@@ -1388,76 +1591,76 @@
         <v>0.175531914893617</v>
       </c>
       <c r="U4">
-        <v>0.3111702127659575</v>
+        <v>0.31117021276595752</v>
       </c>
       <c r="V4">
-        <v>0.4335106382978723</v>
+        <v>0.43351063829787229</v>
       </c>
       <c r="W4">
-        <v>0.0797872340425532</v>
+        <v>7.9787234042553196E-2</v>
       </c>
       <c r="X4">
-        <v>0.4095744680851064</v>
+        <v>0.40957446808510639</v>
       </c>
       <c r="Y4">
-        <v>0.3623595505617977</v>
+        <v>0.36235955056179769</v>
       </c>
       <c r="Z4">
-        <v>0.287037037037037</v>
+        <v>0.28703703703703698</v>
       </c>
       <c r="AA4">
-        <v>0.2777777777777778</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="AB4">
-        <v>0.4351851851851852</v>
+        <v>0.43518518518518517</v>
       </c>
       <c r="AC4">
-        <v>0.3909090909090909</v>
+        <v>0.39090909090909087</v>
       </c>
       <c r="AD4">
-        <v>0.3045454545454546</v>
+        <v>0.30454545454545462</v>
       </c>
       <c r="AE4">
         <v>0.15</v>
       </c>
       <c r="AF4">
-        <v>0.05909090909090909</v>
+        <v>5.909090909090909E-2</v>
       </c>
       <c r="AG4">
-        <v>0.09545454545454546</v>
+        <v>9.5454545454545459E-2</v>
       </c>
       <c r="AH4">
-        <v>0.8484848484848485</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="AI4">
-        <v>0.8205128205128205</v>
+        <v>0.82051282051282048</v>
       </c>
       <c r="AJ4">
         <v>0.7239263803680982</v>
       </c>
       <c r="AK4">
-        <v>0.9333333333333333</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="AL4">
-        <v>0.6829268292682927</v>
+        <v>0.68292682926829273</v>
       </c>
       <c r="AM4">
-        <v>0.5038759689922481</v>
+        <v>0.50387596899224807</v>
       </c>
       <c r="AN4">
-        <v>0.2945736434108527</v>
+        <v>0.29457364341085268</v>
       </c>
       <c r="AO4">
         <v>0.4296875</v>
       </c>
       <c r="AP4">
-        <v>0.4883720930232558</v>
+        <v>0.48837209302325579</v>
       </c>
       <c r="AQ4">
-        <v>0.08196721311475409</v>
+        <v>8.1967213114754092E-2</v>
       </c>
       <c r="AR4">
-        <v>0.2679738562091503</v>
+        <v>0.26797385620915032</v>
       </c>
       <c r="AS4">
         <v>1</v>
@@ -1589,47 +1792,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Campeche</t>
-        </is>
+    <row r="5" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>90</v>
       </c>
       <c r="B5">
-        <v>0.992</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="C5">
-        <v>0.2668918918918919</v>
+        <v>0.26689189189189189</v>
       </c>
       <c r="D5">
-        <v>0.2692307692307692</v>
+        <v>0.26923076923076922</v>
       </c>
       <c r="E5">
-        <v>0.1762820512820513</v>
+        <v>0.17628205128205129</v>
       </c>
       <c r="F5">
         <v>268</v>
       </c>
       <c r="G5">
-        <v>0.370174778671897</v>
+        <v>0.37017477867189702</v>
       </c>
       <c r="H5">
         <v>1692</v>
       </c>
       <c r="I5">
-        <v>0.009250605911654995</v>
+        <v>9.2506059116549948E-3</v>
       </c>
       <c r="J5">
-        <v>0.1777777777777778</v>
+        <v>0.17777777777777781</v>
       </c>
       <c r="K5">
-        <v>0.01481481481481482</v>
+        <v>1.4814814814814821E-2</v>
       </c>
       <c r="L5">
-        <v>0.007407407407407408</v>
+        <v>7.4074074074074077E-3</v>
       </c>
       <c r="M5">
-        <v>0.007407407407407408</v>
+        <v>7.4074074074074077E-3</v>
       </c>
       <c r="N5">
         <v>0.1111111111111111</v>
@@ -1638,58 +1839,58 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.02962962962962963</v>
+        <v>2.9629629629629631E-2</v>
       </c>
       <c r="Q5">
-        <v>0.9033333333333333</v>
+        <v>0.90333333333333332</v>
       </c>
       <c r="R5">
-        <v>0.09666666666666666</v>
+        <v>9.6666666666666665E-2</v>
       </c>
       <c r="S5">
-        <v>0.4074074074074074</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="T5">
-        <v>0.3243243243243243</v>
+        <v>0.32432432432432429</v>
       </c>
       <c r="U5">
-        <v>0.3378378378378378</v>
+        <v>0.33783783783783777</v>
       </c>
       <c r="V5">
-        <v>0.2668918918918919</v>
+        <v>0.26689189189189189</v>
       </c>
       <c r="W5">
-        <v>0.07094594594594594</v>
+        <v>7.0945945945945943E-2</v>
       </c>
       <c r="X5">
-        <v>0.3435374149659864</v>
+        <v>0.34353741496598639</v>
       </c>
       <c r="Y5">
-        <v>0.5210355987055016</v>
+        <v>0.52103559870550165</v>
       </c>
       <c r="Z5">
-        <v>0.3308270676691729</v>
+        <v>0.33082706766917291</v>
       </c>
       <c r="AA5">
         <v>0.2932330827067669</v>
       </c>
       <c r="AB5">
-        <v>0.3759398496240601</v>
+        <v>0.37593984962406007</v>
       </c>
       <c r="AC5">
-        <v>0.3208955223880597</v>
+        <v>0.32089552238805968</v>
       </c>
       <c r="AD5">
-        <v>0.4477611940298508</v>
+        <v>0.44776119402985082</v>
       </c>
       <c r="AE5">
-        <v>0.06716417910447761</v>
+        <v>6.7164179104477612E-2</v>
       </c>
       <c r="AF5">
-        <v>0.09701492537313433</v>
+        <v>9.7014925373134331E-2</v>
       </c>
       <c r="AG5">
-        <v>0.06716417910447761</v>
+        <v>6.7164179104477612E-2</v>
       </c>
       <c r="AH5">
         <v>0.78125</v>
@@ -1698,22 +1899,22 @@
         <v>0.9</v>
       </c>
       <c r="AJ5">
-        <v>0.7468354430379747</v>
+        <v>0.74683544303797467</v>
       </c>
       <c r="AK5">
-        <v>0.8095238095238095</v>
+        <v>0.80952380952380953</v>
       </c>
       <c r="AL5">
-        <v>0.6516129032258065</v>
+        <v>0.65161290322580645</v>
       </c>
       <c r="AM5">
-        <v>0.422360248447205</v>
+        <v>0.42236024844720499</v>
       </c>
       <c r="AN5">
-        <v>0.1304347826086956</v>
+        <v>0.13043478260869559</v>
       </c>
       <c r="AO5">
-        <v>0.6625</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="AP5">
         <v>0.5625</v>
@@ -1722,7 +1923,7 @@
         <v>0.1951219512195122</v>
       </c>
       <c r="AR5">
-        <v>0.3068181818181818</v>
+        <v>0.30681818181818182</v>
       </c>
       <c r="AS5">
         <v>1</v>
@@ -1854,131 +2055,129 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Chiapas</t>
-        </is>
+    <row r="6" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>91</v>
       </c>
       <c r="B6">
-        <v>0.9974293059125964</v>
+        <v>0.99742930591259638</v>
       </c>
       <c r="C6">
         <v>0.1948790896159317</v>
       </c>
       <c r="D6">
-        <v>0.3636363636363636</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="E6">
-        <v>0.0975609756097561</v>
+        <v>9.7560975609756101E-2</v>
       </c>
       <c r="F6">
         <v>1787</v>
       </c>
       <c r="G6">
-        <v>0.323631312517688</v>
+        <v>0.32363131251768801</v>
       </c>
       <c r="H6">
         <v>7579</v>
       </c>
       <c r="I6">
-        <v>0.01861937314786187</v>
+        <v>1.861937314786187E-2</v>
       </c>
       <c r="J6">
-        <v>0.1726190476190476</v>
+        <v>0.17261904761904759</v>
       </c>
       <c r="K6">
-        <v>0.05357142857142857</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.02976190476190476</v>
+        <v>2.976190476190476E-2</v>
       </c>
       <c r="N6">
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.02380952380952381</v>
+        <v>2.3809523809523812E-2</v>
       </c>
       <c r="Q6">
         <v>0.9094594594594595</v>
       </c>
       <c r="R6">
-        <v>0.08783783783783784</v>
+        <v>8.7837837837837843E-2</v>
       </c>
       <c r="S6">
         <v>0.6</v>
       </c>
       <c r="T6">
-        <v>0.1934566145092461</v>
+        <v>0.19345661450924609</v>
       </c>
       <c r="U6">
-        <v>0.5704125177809388</v>
+        <v>0.57041251778093882</v>
       </c>
       <c r="V6">
         <v>0.1948790896159317</v>
       </c>
       <c r="W6">
-        <v>0.04125177809388336</v>
+        <v>4.1251778093883362E-2</v>
       </c>
       <c r="X6">
-        <v>0.4679029957203995</v>
+        <v>0.46790299572039951</v>
       </c>
       <c r="Y6">
-        <v>0.3871866295264624</v>
+        <v>0.38718662952646238</v>
       </c>
       <c r="Z6">
-        <v>0.5269461077844312</v>
+        <v>0.52694610778443118</v>
       </c>
       <c r="AA6">
-        <v>0.2514970059880239</v>
+        <v>0.25149700598802388</v>
       </c>
       <c r="AB6">
-        <v>0.2215568862275449</v>
+        <v>0.22155688622754491</v>
       </c>
       <c r="AC6">
-        <v>0.303030303030303</v>
+        <v>0.30303030303030298</v>
       </c>
       <c r="AD6">
-        <v>0.2303030303030303</v>
+        <v>0.23030303030303029</v>
       </c>
       <c r="AE6">
         <v>0.1333333333333333</v>
       </c>
       <c r="AF6">
-        <v>0.08484848484848485</v>
+        <v>8.4848484848484854E-2</v>
       </c>
       <c r="AG6">
         <v>0.2484848484848485</v>
       </c>
       <c r="AH6">
-        <v>0.8676470588235294</v>
+        <v>0.86764705882352944</v>
       </c>
       <c r="AI6">
-        <v>0.8877805486284289</v>
+        <v>0.88778054862842892</v>
       </c>
       <c r="AJ6">
-        <v>0.7153284671532847</v>
+        <v>0.71532846715328469</v>
       </c>
       <c r="AK6">
-        <v>0.8275862068965517</v>
+        <v>0.82758620689655171</v>
       </c>
       <c r="AL6">
-        <v>0.6401515151515151</v>
+        <v>0.64015151515151514</v>
       </c>
       <c r="AM6">
         <v>0.5126353790613718</v>
       </c>
       <c r="AN6">
-        <v>0.1690647482014389</v>
+        <v>0.16906474820143891</v>
       </c>
       <c r="AO6">
-        <v>0.5781818181818181</v>
+        <v>0.57818181818181813</v>
       </c>
       <c r="AP6">
         <v>0.2418772563176895</v>
@@ -2119,44 +2318,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Chihuahua</t>
-        </is>
+    <row r="7" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>92</v>
       </c>
       <c r="B7">
-        <v>0.9840637450199203</v>
+        <v>0.98406374501992033</v>
       </c>
       <c r="C7">
-        <v>0.198443579766537</v>
+        <v>0.19844357976653701</v>
       </c>
       <c r="D7">
-        <v>0.3227146814404432</v>
+        <v>0.32271468144044319</v>
       </c>
       <c r="E7">
-        <v>0.2054093567251462</v>
+        <v>0.20540935672514621</v>
       </c>
       <c r="F7">
         <v>7532</v>
       </c>
       <c r="G7">
-        <v>0.09279751098702134</v>
+        <v>9.2797510987021339E-2</v>
       </c>
       <c r="H7">
         <v>15899</v>
       </c>
       <c r="I7">
-        <v>0.02236175725487054</v>
+        <v>2.2361757254870541E-2</v>
       </c>
       <c r="J7">
         <v>0.1358189081225033</v>
       </c>
       <c r="K7">
-        <v>0.01731025299600533</v>
+        <v>1.7310252996005328E-2</v>
       </c>
       <c r="L7">
-        <v>0.02396804260985353</v>
+        <v>2.3968042609853531E-2</v>
       </c>
       <c r="M7">
         <v>0.1557922769640479</v>
@@ -2168,91 +2365,91 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.08655126498002663</v>
+        <v>8.6551264980026632E-2</v>
       </c>
       <c r="Q7">
-        <v>0.6255673222390318</v>
+        <v>0.62556732223903178</v>
       </c>
       <c r="R7">
-        <v>0.3305597579425114</v>
+        <v>0.33055975794251141</v>
       </c>
       <c r="S7">
-        <v>0.2348484848484849</v>
+        <v>0.23484848484848489</v>
       </c>
       <c r="T7">
-        <v>0.3945525291828794</v>
+        <v>0.39455252918287942</v>
       </c>
       <c r="U7">
         <v>0.2669260700389105</v>
       </c>
       <c r="V7">
-        <v>0.198443579766537</v>
+        <v>0.19844357976653701</v>
       </c>
       <c r="W7">
-        <v>0.1400778210116732</v>
+        <v>0.14007782101167321</v>
       </c>
       <c r="X7">
-        <v>0.5203125</v>
+        <v>0.52031249999999996</v>
       </c>
       <c r="Y7">
-        <v>0.4408194233687405</v>
+        <v>0.44081942336874053</v>
       </c>
       <c r="Z7">
-        <v>0.2276422764227642</v>
+        <v>0.22764227642276419</v>
       </c>
       <c r="AA7">
-        <v>0.2601626016260163</v>
+        <v>0.26016260162601629</v>
       </c>
       <c r="AB7">
-        <v>0.5121951219512195</v>
+        <v>0.51219512195121952</v>
       </c>
       <c r="AC7">
-        <v>0.3938172043010753</v>
+        <v>0.39381720430107531</v>
       </c>
       <c r="AD7">
-        <v>0.3198924731182796</v>
+        <v>0.31989247311827962</v>
       </c>
       <c r="AE7">
-        <v>0.09274193548387097</v>
+        <v>9.2741935483870969E-2</v>
       </c>
       <c r="AF7">
-        <v>0.0510752688172043</v>
+        <v>5.1075268817204297E-2</v>
       </c>
       <c r="AG7">
         <v>0.1424731182795699</v>
       </c>
       <c r="AH7">
-        <v>0.7712031558185405</v>
+        <v>0.77120315581854049</v>
       </c>
       <c r="AI7">
-        <v>0.7696793002915452</v>
+        <v>0.76967930029154519</v>
       </c>
       <c r="AJ7">
-        <v>0.4901960784313725</v>
+        <v>0.49019607843137247</v>
       </c>
       <c r="AK7">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="AL7">
-        <v>0.64376130198915</v>
+        <v>0.64376130198915005</v>
       </c>
       <c r="AM7">
-        <v>0.540587219343696</v>
+        <v>0.54058721934369602</v>
       </c>
       <c r="AN7">
-        <v>0.1796200345423143</v>
+        <v>0.17962003454231429</v>
       </c>
       <c r="AO7">
-        <v>0.4013840830449827</v>
+        <v>0.40138408304498269</v>
       </c>
       <c r="AP7">
-        <v>0.5206896551724138</v>
+        <v>0.52068965517241383</v>
       </c>
       <c r="AQ7">
-        <v>0.1708860759493671</v>
+        <v>0.17088607594936711</v>
       </c>
       <c r="AR7">
-        <v>0.3644524236983842</v>
+        <v>0.36445242369838421</v>
       </c>
       <c r="AS7">
         <v>1</v>
@@ -2384,17 +2581,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Coahuila de Zaragoza</t>
-        </is>
+    <row r="8" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>93</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.2057245080500894</v>
+        <v>0.20572450805008941</v>
       </c>
       <c r="D8">
         <v>0.1901408450704225</v>
@@ -2406,73 +2601,73 @@
         <v>730</v>
       </c>
       <c r="G8">
-        <v>0.562127226054407</v>
+        <v>0.56212722605440701</v>
       </c>
       <c r="H8">
         <v>2337</v>
       </c>
       <c r="I8">
-        <v>0.05959540781720755</v>
+        <v>5.9595407817207548E-2</v>
       </c>
       <c r="J8">
-        <v>0.2206896551724138</v>
+        <v>0.22068965517241379</v>
       </c>
       <c r="K8">
-        <v>0.03793103448275862</v>
+        <v>3.793103448275862E-2</v>
       </c>
       <c r="L8">
-        <v>0.003448275862068965</v>
+        <v>3.448275862068965E-3</v>
       </c>
       <c r="M8">
-        <v>0.03103448275862069</v>
+        <v>3.1034482758620689E-2</v>
       </c>
       <c r="N8">
-        <v>0.2206896551724138</v>
+        <v>0.22068965517241379</v>
       </c>
       <c r="O8">
-        <v>0.003448275862068965</v>
+        <v>3.448275862068965E-3</v>
       </c>
       <c r="P8">
-        <v>0.04827586206896552</v>
+        <v>4.8275862068965517E-2</v>
       </c>
       <c r="Q8">
-        <v>0.8432055749128919</v>
+        <v>0.84320557491289194</v>
       </c>
       <c r="R8">
-        <v>0.1428571428571428</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="S8">
-        <v>0.396551724137931</v>
+        <v>0.39655172413793099</v>
       </c>
       <c r="T8">
-        <v>0.2665474060822898</v>
+        <v>0.26654740608228977</v>
       </c>
       <c r="U8">
         <v>0.3291592128801431</v>
       </c>
       <c r="V8">
-        <v>0.2057245080500894</v>
+        <v>0.20572450805008941</v>
       </c>
       <c r="W8">
-        <v>0.1985688729874776</v>
+        <v>0.19856887298747761</v>
       </c>
       <c r="X8">
-        <v>0.5197841726618705</v>
+        <v>0.51978417266187049</v>
       </c>
       <c r="Y8">
-        <v>0.4756944444444444</v>
+        <v>0.47569444444444442</v>
       </c>
       <c r="Z8">
-        <v>0.1403508771929824</v>
+        <v>0.14035087719298239</v>
       </c>
       <c r="AA8">
-        <v>0.343859649122807</v>
+        <v>0.34385964912280698</v>
       </c>
       <c r="AB8">
-        <v>0.5157894736842106</v>
+        <v>0.51578947368421058</v>
       </c>
       <c r="AC8">
-        <v>0.3620689655172414</v>
+        <v>0.36206896551724138</v>
       </c>
       <c r="AD8">
         <v>0.3724137931034483</v>
@@ -2481,28 +2676,28 @@
         <v>0.1206896551724138</v>
       </c>
       <c r="AF8">
-        <v>0.03793103448275862</v>
+        <v>3.793103448275862E-2</v>
       </c>
       <c r="AG8">
-        <v>0.1068965517241379</v>
+        <v>0.10689655172413789</v>
       </c>
       <c r="AH8">
         <v>0.7651006711409396</v>
       </c>
       <c r="AI8">
-        <v>0.8315217391304348</v>
+        <v>0.83152173913043481</v>
       </c>
       <c r="AJ8">
-        <v>0.5739130434782609</v>
+        <v>0.57391304347826089</v>
       </c>
       <c r="AK8">
-        <v>0.8198198198198198</v>
+        <v>0.81981981981981977</v>
       </c>
       <c r="AL8">
-        <v>0.6486486486486487</v>
+        <v>0.64864864864864868</v>
       </c>
       <c r="AM8">
-        <v>0.4343065693430657</v>
+        <v>0.43430656934306572</v>
       </c>
       <c r="AN8">
         <v>0.1465201465201465</v>
@@ -2511,10 +2706,10 @@
         <v>0.5350553505535055</v>
       </c>
       <c r="AP8">
-        <v>0.5182481751824818</v>
+        <v>0.51824817518248179</v>
       </c>
       <c r="AQ8">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AR8">
         <v>0.2139917695473251</v>
@@ -2649,140 +2844,138 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Colima</t>
-        </is>
+    <row r="9" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>94</v>
       </c>
       <c r="B9">
-        <v>0.9587628865979382</v>
+        <v>0.95876288659793818</v>
       </c>
       <c r="C9">
-        <v>0.1963470319634703</v>
+        <v>0.19634703196347031</v>
       </c>
       <c r="D9">
-        <v>0.3133333333333334</v>
+        <v>0.31333333333333341</v>
       </c>
       <c r="E9">
-        <v>0.3140495867768595</v>
+        <v>0.31404958677685951</v>
       </c>
       <c r="F9">
         <v>2114</v>
       </c>
       <c r="G9">
-        <v>0.02730289388350121</v>
+        <v>2.7302893883501211E-2</v>
       </c>
       <c r="H9">
         <v>4077</v>
       </c>
       <c r="I9">
-        <v>0.007595189771609037</v>
+        <v>7.5951897716090367E-3</v>
       </c>
       <c r="J9">
         <v>0.1158536585365854</v>
       </c>
       <c r="K9">
-        <v>0.06707317073170732</v>
+        <v>6.7073170731707321E-2</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.1768292682926829</v>
+        <v>0.17682926829268289</v>
       </c>
       <c r="N9">
-        <v>0.1768292682926829</v>
+        <v>0.17682926829268289</v>
       </c>
       <c r="O9">
-        <v>0.01219512195121951</v>
+        <v>1.2195121951219509E-2</v>
       </c>
       <c r="P9">
-        <v>0.06097560975609756</v>
+        <v>6.097560975609756E-2</v>
       </c>
       <c r="Q9">
-        <v>0.6282051282051282</v>
+        <v>0.62820512820512819</v>
       </c>
       <c r="R9">
-        <v>0.3376068376068376</v>
+        <v>0.33760683760683757</v>
       </c>
       <c r="S9">
-        <v>0.4193548387096774</v>
+        <v>0.41935483870967738</v>
       </c>
       <c r="T9">
-        <v>0.3059360730593607</v>
+        <v>0.30593607305936071</v>
       </c>
       <c r="U9">
-        <v>0.2648401826484018</v>
+        <v>0.26484018264840181</v>
       </c>
       <c r="V9">
-        <v>0.1963470319634703</v>
+        <v>0.19634703196347031</v>
       </c>
       <c r="W9">
-        <v>0.2328767123287671</v>
+        <v>0.23287671232876711</v>
       </c>
       <c r="X9">
-        <v>0.4703196347031963</v>
+        <v>0.47031963470319632</v>
       </c>
       <c r="Y9">
         <v>0.45</v>
       </c>
       <c r="Z9">
-        <v>0.2967741935483871</v>
+        <v>0.29677419354838708</v>
       </c>
       <c r="AA9">
-        <v>0.335483870967742</v>
+        <v>0.33548387096774201</v>
       </c>
       <c r="AB9">
-        <v>0.367741935483871</v>
+        <v>0.36774193548387102</v>
       </c>
       <c r="AC9">
-        <v>0.4207317073170732</v>
+        <v>0.42073170731707321</v>
       </c>
       <c r="AD9">
-        <v>0.298780487804878</v>
+        <v>0.29878048780487798</v>
       </c>
       <c r="AE9">
-        <v>0.05487804878048781</v>
+        <v>5.4878048780487812E-2</v>
       </c>
       <c r="AF9">
-        <v>0.02439024390243903</v>
+        <v>2.4390243902439029E-2</v>
       </c>
       <c r="AG9">
-        <v>0.201219512195122</v>
+        <v>0.20121951219512199</v>
       </c>
       <c r="AH9">
-        <v>0.8059701492537313</v>
+        <v>0.80597014925373134</v>
       </c>
       <c r="AI9">
-        <v>0.8620689655172413</v>
+        <v>0.86206896551724133</v>
       </c>
       <c r="AJ9">
-        <v>0.6744186046511628</v>
+        <v>0.67441860465116277</v>
       </c>
       <c r="AK9">
-        <v>0.9411764705882353</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AL9">
-        <v>0.5510204081632653</v>
+        <v>0.55102040816326525</v>
       </c>
       <c r="AM9">
-        <v>0.2990654205607476</v>
+        <v>0.29906542056074759</v>
       </c>
       <c r="AN9">
-        <v>0.1944444444444444</v>
+        <v>0.19444444444444439</v>
       </c>
       <c r="AO9">
-        <v>0.4953271028037383</v>
+        <v>0.49532710280373832</v>
       </c>
       <c r="AP9">
-        <v>0.4351851851851852</v>
+        <v>0.43518518518518517</v>
       </c>
       <c r="AQ9">
         <v>0.2142857142857143</v>
       </c>
       <c r="AR9">
-        <v>0.3689320388349515</v>
+        <v>0.36893203883495151</v>
       </c>
       <c r="AS9">
         <v>1</v>
@@ -2914,83 +3107,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Distrito Federal</t>
-        </is>
+    <row r="10" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>95</v>
       </c>
       <c r="B10">
-        <v>0.9797794117647058</v>
+        <v>0.97977941176470584</v>
       </c>
       <c r="C10">
-        <v>0.2486842105263158</v>
+        <v>0.24868421052631581</v>
       </c>
       <c r="D10">
-        <v>0.4190871369294606</v>
+        <v>0.41908713692946059</v>
       </c>
       <c r="E10">
-        <v>0.1405049396267838</v>
+        <v>0.14050493962678379</v>
       </c>
       <c r="F10">
         <v>4452</v>
       </c>
       <c r="G10">
-        <v>0.04070727711733513</v>
+        <v>4.0707277117335128E-2</v>
       </c>
       <c r="H10">
         <v>41458</v>
       </c>
       <c r="I10">
-        <v>0.001961106978243992</v>
+        <v>1.9611069782439921E-3</v>
       </c>
       <c r="J10">
-        <v>0.06130268199233716</v>
+        <v>6.1302681992337162E-2</v>
       </c>
       <c r="K10">
-        <v>0.05747126436781609</v>
+        <v>5.7471264367816091E-2</v>
       </c>
       <c r="L10">
-        <v>0.01915708812260536</v>
+        <v>1.9157088122605359E-2</v>
       </c>
       <c r="M10">
-        <v>0.03831417624521073</v>
+        <v>3.8314176245210732E-2</v>
       </c>
       <c r="N10">
-        <v>0.09195402298850575</v>
+        <v>9.1954022988505746E-2</v>
       </c>
       <c r="O10">
-        <v>0.01532567049808429</v>
+        <v>1.532567049808429E-2</v>
       </c>
       <c r="P10">
-        <v>0.07662835249042145</v>
+        <v>7.662835249042145E-2</v>
       </c>
       <c r="Q10">
-        <v>0.7935943060498221</v>
+        <v>0.79359430604982206</v>
       </c>
       <c r="R10">
         <v>0.1494661921708185</v>
       </c>
       <c r="S10">
-        <v>0.5380434782608695</v>
+        <v>0.53804347826086951</v>
       </c>
       <c r="T10">
-        <v>0.3763157894736842</v>
+        <v>0.37631578947368421</v>
       </c>
       <c r="U10">
-        <v>0.2723684210526316</v>
+        <v>0.27236842105263159</v>
       </c>
       <c r="V10">
-        <v>0.2486842105263158</v>
+        <v>0.24868421052631581</v>
       </c>
       <c r="W10">
-        <v>0.1026315789473684</v>
+        <v>0.10263157894736839</v>
       </c>
       <c r="X10">
-        <v>0.4986772486772487</v>
+        <v>0.49867724867724872</v>
       </c>
       <c r="Y10">
-        <v>0.4089805825242718</v>
+        <v>0.40898058252427177</v>
       </c>
       <c r="Z10">
         <v>0.39453125</v>
@@ -3002,52 +3193,52 @@
         <v>0.34765625</v>
       </c>
       <c r="AC10">
-        <v>0.4521072796934866</v>
+        <v>0.45210727969348657</v>
       </c>
       <c r="AD10">
-        <v>0.3218390804597701</v>
+        <v>0.32183908045977011</v>
       </c>
       <c r="AE10">
-        <v>0.05363984674329502</v>
+        <v>5.3639846743295021E-2</v>
       </c>
       <c r="AF10">
-        <v>0.04597701149425287</v>
+        <v>4.5977011494252873E-2</v>
       </c>
       <c r="AG10">
-        <v>0.1264367816091954</v>
+        <v>0.12643678160919539</v>
       </c>
       <c r="AH10">
-        <v>0.8531468531468531</v>
+        <v>0.85314685314685312</v>
       </c>
       <c r="AI10">
-        <v>0.8647342995169082</v>
+        <v>0.86473429951690817</v>
       </c>
       <c r="AJ10">
-        <v>0.6084656084656085</v>
+        <v>0.60846560846560849</v>
       </c>
       <c r="AK10">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AL10">
-        <v>0.6614420062695925</v>
+        <v>0.66144200626959249</v>
       </c>
       <c r="AM10">
-        <v>0.5875370919881305</v>
+        <v>0.58753709198813053</v>
       </c>
       <c r="AN10">
-        <v>0.2433234421364985</v>
+        <v>0.24332344213649851</v>
       </c>
       <c r="AO10">
-        <v>0.3679525222551929</v>
+        <v>0.36795252225519293</v>
       </c>
       <c r="AP10">
-        <v>0.2321428571428572</v>
+        <v>0.23214285714285721</v>
       </c>
       <c r="AQ10">
-        <v>0.2150537634408602</v>
+        <v>0.21505376344086019</v>
       </c>
       <c r="AR10">
-        <v>0.5379310344827586</v>
+        <v>0.53793103448275859</v>
       </c>
       <c r="AS10">
         <v>1</v>
@@ -3179,20 +3370,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Durango</t>
-        </is>
+    <row r="11" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>96</v>
       </c>
       <c r="B11">
-        <v>0.9918478260869565</v>
+        <v>0.99184782608695654</v>
       </c>
       <c r="C11">
-        <v>0.2372528616024974</v>
+        <v>0.23725286160249739</v>
       </c>
       <c r="D11">
-        <v>0.4373795761078998</v>
+        <v>0.43737957610789979</v>
       </c>
       <c r="E11">
         <v>0.244817374136229</v>
@@ -3201,118 +3390,118 @@
         <v>553</v>
       </c>
       <c r="G11">
-        <v>0.3234631257613254</v>
+        <v>0.32346312576132541</v>
       </c>
       <c r="H11">
         <v>3673</v>
       </c>
       <c r="I11">
-        <v>0.03109308119195347</v>
+        <v>3.1093081191953469E-2</v>
       </c>
       <c r="J11">
-        <v>0.06805293005671077</v>
+        <v>6.8052930056710773E-2</v>
       </c>
       <c r="K11">
-        <v>0.01512287334593573</v>
+        <v>1.512287334593573E-2</v>
       </c>
       <c r="L11">
-        <v>0.007561436672967864</v>
+        <v>7.5614366729678641E-3</v>
       </c>
       <c r="M11">
-        <v>0.01512287334593573</v>
+        <v>1.512287334593573E-2</v>
       </c>
       <c r="N11">
-        <v>0.3761814744801512</v>
+        <v>0.37618147448015121</v>
       </c>
       <c r="O11">
-        <v>0.005671077504725898</v>
+        <v>5.6710775047258983E-3</v>
       </c>
       <c r="P11">
-        <v>0.03024574669187146</v>
+        <v>3.024574669187146E-2</v>
       </c>
       <c r="Q11">
-        <v>0.8734335839598998</v>
+        <v>0.87343358395989978</v>
       </c>
       <c r="R11">
         <v>0.119047619047619</v>
       </c>
       <c r="S11">
-        <v>0.4303797468354431</v>
+        <v>0.43037974683544311</v>
       </c>
       <c r="T11">
-        <v>0.3933402705515088</v>
+        <v>0.39334027055150877</v>
       </c>
       <c r="U11">
         <v>0.1571279916753382</v>
       </c>
       <c r="V11">
-        <v>0.2372528616024974</v>
+        <v>0.23725286160249739</v>
       </c>
       <c r="W11">
-        <v>0.2122788761706556</v>
+        <v>0.21227887617065561</v>
       </c>
       <c r="X11">
-        <v>0.3549738219895288</v>
+        <v>0.35497382198952881</v>
       </c>
       <c r="Y11">
-        <v>0.455761316872428</v>
+        <v>0.45576131687242799</v>
       </c>
       <c r="Z11">
-        <v>0.1318897637795275</v>
+        <v>0.13188976377952749</v>
       </c>
       <c r="AA11">
-        <v>0.09251968503937008</v>
+        <v>9.2519685039370081E-2</v>
       </c>
       <c r="AB11">
-        <v>0.7755905511811023</v>
+        <v>0.77559055118110232</v>
       </c>
       <c r="AC11">
-        <v>0.6660341555977229</v>
+        <v>0.66603415559772294</v>
       </c>
       <c r="AD11">
         <v>0.1764705882352941</v>
       </c>
       <c r="AE11">
-        <v>0.08349146110056926</v>
+        <v>8.3491461100569264E-2</v>
       </c>
       <c r="AF11">
-        <v>0.02656546489563567</v>
+        <v>2.656546489563567E-2</v>
       </c>
       <c r="AG11">
-        <v>0.04743833017077799</v>
+        <v>4.743833017077799E-2</v>
       </c>
       <c r="AH11">
-        <v>0.3095238095238095</v>
+        <v>0.30952380952380948</v>
       </c>
       <c r="AI11">
-        <v>0.4701986754966888</v>
+        <v>0.47019867549668881</v>
       </c>
       <c r="AJ11">
-        <v>0.2763157894736842</v>
+        <v>0.27631578947368418</v>
       </c>
       <c r="AK11">
-        <v>0.3823529411764706</v>
+        <v>0.38235294117647062</v>
       </c>
       <c r="AL11">
-        <v>0.8591549295774648</v>
+        <v>0.85915492957746475</v>
       </c>
       <c r="AM11">
-        <v>0.8181818181818182</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="AN11">
-        <v>0.441108545034642</v>
+        <v>0.44110854503464197</v>
       </c>
       <c r="AO11">
-        <v>0.08656036446469248</v>
+        <v>8.656036446469248E-2</v>
       </c>
       <c r="AP11">
         <v>0.8148984198645598</v>
       </c>
       <c r="AQ11">
-        <v>0.4461538461538462</v>
+        <v>0.44615384615384618</v>
       </c>
       <c r="AR11">
-        <v>0.4347826086956522</v>
+        <v>0.43478260869565222</v>
       </c>
       <c r="AS11">
         <v>1</v>
@@ -3444,20 +3633,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Guanajuato</t>
-        </is>
+    <row r="12" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>97</v>
       </c>
       <c r="B12">
-        <v>0.9845626072041166</v>
+        <v>0.98456260720411659</v>
       </c>
       <c r="C12">
         <v>0.2495726495726496</v>
       </c>
       <c r="D12">
-        <v>0.3066037735849056</v>
+        <v>0.30660377358490559</v>
       </c>
       <c r="E12">
         <v>0.160377358490566</v>
@@ -3466,49 +3653,49 @@
         <v>10454</v>
       </c>
       <c r="G12">
-        <v>0.07951817396080521</v>
+        <v>7.9518173960805211E-2</v>
       </c>
       <c r="H12">
         <v>15086</v>
       </c>
       <c r="I12">
-        <v>0.03729636483449194</v>
+        <v>3.7296364834491939E-2</v>
       </c>
       <c r="J12">
-        <v>0.1615853658536585</v>
+        <v>0.16158536585365851</v>
       </c>
       <c r="K12">
-        <v>0.02134146341463415</v>
+        <v>2.1341463414634151E-2</v>
       </c>
       <c r="L12">
-        <v>0.009146341463414634</v>
+        <v>9.1463414634146336E-3</v>
       </c>
       <c r="M12">
-        <v>0.08536585365853659</v>
+        <v>8.5365853658536592E-2</v>
       </c>
       <c r="N12">
-        <v>0.07926829268292683</v>
+        <v>7.926829268292683E-2</v>
       </c>
       <c r="O12">
-        <v>0.001524390243902439</v>
+        <v>1.5243902439024391E-3</v>
       </c>
       <c r="P12">
-        <v>0.09908536585365854</v>
+        <v>9.9085365853658541E-2</v>
       </c>
       <c r="Q12">
-        <v>0.7258620689655172</v>
+        <v>0.72586206896551719</v>
       </c>
       <c r="R12">
-        <v>0.2241379310344828</v>
+        <v>0.22413793103448279</v>
       </c>
       <c r="S12">
         <v>0.4419642857142857</v>
       </c>
       <c r="T12">
-        <v>0.235042735042735</v>
+        <v>0.23504273504273501</v>
       </c>
       <c r="U12">
-        <v>0.382051282051282</v>
+        <v>0.38205128205128203</v>
       </c>
       <c r="V12">
         <v>0.2495726495726496</v>
@@ -3517,67 +3704,67 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="X12">
-        <v>0.5137221269296741</v>
+        <v>0.51372212692967412</v>
       </c>
       <c r="Y12">
-        <v>0.4381188118811881</v>
+        <v>0.43811881188118812</v>
       </c>
       <c r="Z12">
-        <v>0.2676056338028169</v>
+        <v>0.26760563380281688</v>
       </c>
       <c r="AA12">
-        <v>0.3223787167449139</v>
+        <v>0.32237871674491392</v>
       </c>
       <c r="AB12">
-        <v>0.4100156494522691</v>
+        <v>0.41001564945226909</v>
       </c>
       <c r="AC12">
-        <v>0.3528505392912172</v>
+        <v>0.35285053929121718</v>
       </c>
       <c r="AD12">
-        <v>0.349768875192604</v>
+        <v>0.34976887519260402</v>
       </c>
       <c r="AE12">
-        <v>0.1386748844375963</v>
+        <v>0.13867488443759629</v>
       </c>
       <c r="AF12">
-        <v>0.04006163328197226</v>
+        <v>4.0061633281972257E-2</v>
       </c>
       <c r="AG12">
         <v>0.1186440677966102</v>
       </c>
       <c r="AH12">
-        <v>0.7672727272727272</v>
+        <v>0.76727272727272722</v>
       </c>
       <c r="AI12">
-        <v>0.8008948545861297</v>
+        <v>0.80089485458612975</v>
       </c>
       <c r="AJ12">
-        <v>0.5753424657534246</v>
+        <v>0.57534246575342463</v>
       </c>
       <c r="AK12">
-        <v>0.8782051282051282</v>
+        <v>0.87820512820512819</v>
       </c>
       <c r="AL12">
         <v>0.625</v>
       </c>
       <c r="AM12">
-        <v>0.4678030303030303</v>
+        <v>0.46780303030303028</v>
       </c>
       <c r="AN12">
-        <v>0.1650853889943074</v>
+        <v>0.16508538899430741</v>
       </c>
       <c r="AO12">
-        <v>0.4042553191489361</v>
+        <v>0.40425531914893609</v>
       </c>
       <c r="AP12">
-        <v>0.365530303030303</v>
+        <v>0.36553030303030298</v>
       </c>
       <c r="AQ12">
-        <v>0.1219512195121951</v>
+        <v>0.12195121951219511</v>
       </c>
       <c r="AR12">
-        <v>0.3636363636363636</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="AS12">
         <v>1</v>
@@ -3709,20 +3896,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Guerrero</t>
-        </is>
+    <row r="13" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>98</v>
       </c>
       <c r="B13">
-        <v>0.9931034482758621</v>
+        <v>0.99310344827586206</v>
       </c>
       <c r="C13">
-        <v>0.1987179487179487</v>
+        <v>0.19871794871794871</v>
       </c>
       <c r="D13">
-        <v>0.251063829787234</v>
+        <v>0.25106382978723402</v>
       </c>
       <c r="E13">
         <v>0.1130952380952381</v>
@@ -3731,13 +3916,13 @@
         <v>5709</v>
       </c>
       <c r="G13">
-        <v>0.05059331634327526</v>
+        <v>5.0593316343275262E-2</v>
       </c>
       <c r="H13">
         <v>10587</v>
       </c>
       <c r="I13">
-        <v>0.006696194928978531</v>
+        <v>6.6961949289785312E-3</v>
       </c>
       <c r="J13">
         <v>0.1083333333333333</v>
@@ -3746,7 +3931,7 @@
         <v>0.1</v>
       </c>
       <c r="L13">
-        <v>0.01666666666666667</v>
+        <v>1.666666666666667E-2</v>
       </c>
       <c r="M13">
         <v>0.45</v>
@@ -3761,40 +3946,40 @@
         <v>0.05</v>
       </c>
       <c r="Q13">
-        <v>0.5852631578947368</v>
+        <v>0.58526315789473682</v>
       </c>
       <c r="R13">
-        <v>0.3768421052631579</v>
+        <v>0.37684210526315792</v>
       </c>
       <c r="S13">
-        <v>0.3402061855670103</v>
+        <v>0.34020618556701032</v>
       </c>
       <c r="T13">
-        <v>0.311965811965812</v>
+        <v>0.31196581196581202</v>
       </c>
       <c r="U13">
-        <v>0.3076923076923077</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="V13">
-        <v>0.1987179487179487</v>
+        <v>0.19871794871794871</v>
       </c>
       <c r="W13">
-        <v>0.1816239316239316</v>
+        <v>0.18162393162393159</v>
       </c>
       <c r="X13">
-        <v>0.5982905982905983</v>
+        <v>0.59829059829059827</v>
       </c>
       <c r="Y13">
-        <v>0.4623893805309734</v>
+        <v>0.46238938053097339</v>
       </c>
       <c r="Z13">
-        <v>0.2680851063829787</v>
+        <v>0.26808510638297872</v>
       </c>
       <c r="AA13">
-        <v>0.323404255319149</v>
+        <v>0.32340425531914901</v>
       </c>
       <c r="AB13">
-        <v>0.4085106382978723</v>
+        <v>0.40851063829787232</v>
       </c>
       <c r="AC13">
         <v>0.2288135593220339</v>
@@ -3806,43 +3991,43 @@
         <v>0.1271186440677966</v>
       </c>
       <c r="AF13">
-        <v>0.02966101694915254</v>
+        <v>2.966101694915254E-2</v>
       </c>
       <c r="AG13">
-        <v>0.1779661016949153</v>
+        <v>0.17796610169491531</v>
       </c>
       <c r="AH13">
         <v>0.8904109589041096</v>
       </c>
       <c r="AI13">
-        <v>0.8958333333333334</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="AJ13">
-        <v>0.6129032258064516</v>
+        <v>0.61290322580645162</v>
       </c>
       <c r="AK13">
-        <v>0.9176470588235294</v>
+        <v>0.91764705882352937</v>
       </c>
       <c r="AL13">
-        <v>0.6968085106382979</v>
+        <v>0.69680851063829785</v>
       </c>
       <c r="AM13">
-        <v>0.5048543689320388</v>
+        <v>0.50485436893203883</v>
       </c>
       <c r="AN13">
-        <v>0.1586538461538461</v>
+        <v>0.15865384615384609</v>
       </c>
       <c r="AO13">
-        <v>0.5458937198067633</v>
+        <v>0.54589371980676327</v>
       </c>
       <c r="AP13">
         <v>0.4784688995215311</v>
       </c>
       <c r="AQ13">
-        <v>0.06451612903225806</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="AR13">
-        <v>0.3076923076923077</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="AS13">
         <v>1</v>
@@ -3974,137 +4159,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Hidalgo</t>
-        </is>
+    <row r="14" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>99</v>
       </c>
       <c r="B14">
-        <v>0.9596977329974811</v>
+        <v>0.95969773299748107</v>
       </c>
       <c r="C14">
-        <v>0.2947368421052631</v>
+        <v>0.29473684210526307</v>
       </c>
       <c r="D14">
-        <v>0.09352517985611511</v>
+        <v>9.3525179856115109E-2</v>
       </c>
       <c r="E14">
-        <v>0.08228730822873083</v>
+        <v>8.2287308228730829E-2</v>
       </c>
       <c r="F14">
         <v>913</v>
       </c>
       <c r="G14">
-        <v>0.2541293353237342</v>
+        <v>0.25412933532373422</v>
       </c>
       <c r="H14">
         <v>14329</v>
       </c>
       <c r="I14">
-        <v>0.01280369217184481</v>
+        <v>1.2803692171844809E-2</v>
       </c>
       <c r="J14">
-        <v>0.09364548494983277</v>
+        <v>9.3645484949832769E-2</v>
       </c>
       <c r="K14">
-        <v>0.06688963210702341</v>
+        <v>6.6889632107023408E-2</v>
       </c>
       <c r="L14">
-        <v>0.003344481605351171</v>
+        <v>3.3444816053511709E-3</v>
       </c>
       <c r="M14">
-        <v>0.02675585284280936</v>
+        <v>2.6755852842809361E-2</v>
       </c>
       <c r="N14">
-        <v>0.02006688963210702</v>
+        <v>2.006688963210702E-2</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.08695652173913043</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="Q14">
-        <v>0.8382352941176471</v>
+        <v>0.83823529411764708</v>
       </c>
       <c r="R14">
         <v>0.1470588235294118</v>
       </c>
       <c r="S14">
-        <v>0.5061728395061729</v>
+        <v>0.50617283950617287</v>
       </c>
       <c r="T14">
-        <v>0.4766917293233083</v>
+        <v>0.47669172932330828</v>
       </c>
       <c r="U14">
         <v>0.1548872180451128</v>
       </c>
       <c r="V14">
-        <v>0.2947368421052631</v>
+        <v>0.29473684210526307</v>
       </c>
       <c r="W14">
-        <v>0.07368421052631578</v>
+        <v>7.3684210526315783E-2</v>
       </c>
       <c r="X14">
-        <v>0.5075301204819277</v>
+        <v>0.50753012048192769</v>
       </c>
       <c r="Y14">
-        <v>0.3936324167872648</v>
+        <v>0.39363241678726479</v>
       </c>
       <c r="Z14">
-        <v>0.4246575342465753</v>
+        <v>0.42465753424657532</v>
       </c>
       <c r="AA14">
-        <v>0.2431506849315068</v>
+        <v>0.24315068493150679</v>
       </c>
       <c r="AB14">
         <v>0.3321917808219178</v>
       </c>
       <c r="AC14">
-        <v>0.1380471380471381</v>
+        <v>0.13804713804713811</v>
       </c>
       <c r="AD14">
-        <v>0.5050505050505051</v>
+        <v>0.50505050505050508</v>
       </c>
       <c r="AE14">
-        <v>0.1346801346801347</v>
+        <v>0.13468013468013471</v>
       </c>
       <c r="AF14">
-        <v>0.04713804713804714</v>
+        <v>4.7138047138047139E-2</v>
       </c>
       <c r="AG14">
-        <v>0.1750841750841751</v>
+        <v>0.17508417508417509</v>
       </c>
       <c r="AH14">
-        <v>0.8832807570977917</v>
+        <v>0.88328075709779175</v>
       </c>
       <c r="AI14">
-        <v>0.7766990291262136</v>
+        <v>0.77669902912621358</v>
       </c>
       <c r="AJ14">
-        <v>0.6275510204081632</v>
+        <v>0.62755102040816324</v>
       </c>
       <c r="AK14">
-        <v>0.9387755102040817</v>
+        <v>0.93877551020408168</v>
       </c>
       <c r="AL14">
         <v>0.65234375</v>
       </c>
       <c r="AM14">
-        <v>0.5477941176470589</v>
+        <v>0.54779411764705888</v>
       </c>
       <c r="AN14">
         <v>0.1764705882352941</v>
       </c>
       <c r="AO14">
-        <v>0.4080882352941176</v>
+        <v>0.40808823529411759</v>
       </c>
       <c r="AP14">
-        <v>0.3198529411764706</v>
+        <v>0.31985294117647062</v>
       </c>
       <c r="AQ14">
-        <v>0.04545454545454546</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="AR14">
         <v>0.1212121212121212</v>
@@ -4239,20 +4422,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Jalisco</t>
-        </is>
+    <row r="15" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>100</v>
       </c>
       <c r="B15">
-        <v>0.9893162393162394</v>
+        <v>0.98931623931623935</v>
       </c>
       <c r="C15">
-        <v>0.2847124824684432</v>
+        <v>0.28471248246844322</v>
       </c>
       <c r="D15">
-        <v>0.2272727272727273</v>
+        <v>0.22727272727272729</v>
       </c>
       <c r="E15">
         <v>0.1818181818181818</v>
@@ -4261,85 +4442,85 @@
         <v>6855</v>
       </c>
       <c r="G15">
-        <v>0.06590742512432309</v>
+        <v>6.5907425124323085E-2</v>
       </c>
       <c r="H15">
         <v>63413</v>
       </c>
       <c r="I15">
-        <v>0.0136640842416558</v>
+        <v>1.3664084241655799E-2</v>
       </c>
       <c r="J15">
         <v>0.106280193236715</v>
       </c>
       <c r="K15">
-        <v>0.00966183574879227</v>
+        <v>9.6618357487922701E-3</v>
       </c>
       <c r="L15">
-        <v>0.01449275362318841</v>
+        <v>1.4492753623188409E-2</v>
       </c>
       <c r="M15">
-        <v>0.04830917874396135</v>
+        <v>4.8309178743961352E-2</v>
       </c>
       <c r="N15">
-        <v>0.04347826086956522</v>
+        <v>4.3478260869565223E-2</v>
       </c>
       <c r="O15">
-        <v>0.004830917874396135</v>
+        <v>4.830917874396135E-3</v>
       </c>
       <c r="P15">
-        <v>0.2270531400966184</v>
+        <v>0.22705314009661839</v>
       </c>
       <c r="Q15">
-        <v>0.8480662983425414</v>
+        <v>0.84806629834254144</v>
       </c>
       <c r="R15">
         <v>0.1104972375690608</v>
       </c>
       <c r="S15">
-        <v>0.5121951219512195</v>
+        <v>0.51219512195121952</v>
       </c>
       <c r="T15">
         <v>0.3744740532959327</v>
       </c>
       <c r="U15">
-        <v>0.1612903225806452</v>
+        <v>0.16129032258064521</v>
       </c>
       <c r="V15">
-        <v>0.2847124824684432</v>
+        <v>0.28471248246844322</v>
       </c>
       <c r="W15">
-        <v>0.179523141654979</v>
+        <v>0.17952314165497901</v>
       </c>
       <c r="X15">
         <v>0.4943661971830986</v>
       </c>
       <c r="Y15">
-        <v>0.5068870523415978</v>
+        <v>0.50688705234159781</v>
       </c>
       <c r="Z15">
-        <v>0.2615384615384616</v>
+        <v>0.26153846153846161</v>
       </c>
       <c r="AA15">
         <v>0.2</v>
       </c>
       <c r="AB15">
-        <v>0.5384615384615384</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="AC15">
-        <v>0.4029126213592233</v>
+        <v>0.40291262135922329</v>
       </c>
       <c r="AD15">
-        <v>0.4174757281553398</v>
+        <v>0.41747572815533979</v>
       </c>
       <c r="AE15">
-        <v>0.0970873786407767</v>
+        <v>9.7087378640776698E-2</v>
       </c>
       <c r="AF15">
-        <v>0.01456310679611651</v>
+        <v>1.4563106796116511E-2</v>
       </c>
       <c r="AG15">
-        <v>0.06796116504854369</v>
+        <v>6.7961165048543687E-2</v>
       </c>
       <c r="AH15">
         <v>0.7191011235955056</v>
@@ -4348,7 +4529,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ15">
-        <v>0.5665024630541872</v>
+        <v>0.56650246305418717</v>
       </c>
       <c r="AK15">
         <v>0.6640625</v>
@@ -4357,22 +4538,22 @@
         <v>0.6524216524216524</v>
       </c>
       <c r="AM15">
-        <v>0.5108695652173914</v>
+        <v>0.51086956521739135</v>
       </c>
       <c r="AN15">
         <v>0.1525885558583106</v>
       </c>
       <c r="AO15">
-        <v>0.3489010989010989</v>
+        <v>0.34890109890109888</v>
       </c>
       <c r="AP15">
-        <v>0.3777173913043478</v>
+        <v>0.37771739130434778</v>
       </c>
       <c r="AQ15">
-        <v>0.1739130434782609</v>
+        <v>0.17391304347826089</v>
       </c>
       <c r="AR15">
-        <v>0.2183098591549296</v>
+        <v>0.21830985915492959</v>
       </c>
       <c r="AS15">
         <v>1</v>
@@ -4504,20 +4685,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Michoacán de Ocampo</t>
-        </is>
+    <row r="16" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>101</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0.2372262773722628</v>
+        <v>0.23722627737226279</v>
       </c>
       <c r="D16">
-        <v>0.2421052631578947</v>
+        <v>0.24210526315789471</v>
       </c>
       <c r="E16">
         <v>0.1044303797468354</v>
@@ -4526,115 +4705,115 @@
         <v>6242</v>
       </c>
       <c r="G16">
-        <v>0.04074530893166759</v>
+        <v>4.0745308931667591E-2</v>
       </c>
       <c r="H16">
         <v>23666</v>
       </c>
       <c r="I16">
-        <v>0.005771054868036863</v>
+        <v>5.7710548680368632E-3</v>
       </c>
       <c r="J16">
-        <v>0.2115384615384615</v>
+        <v>0.21153846153846151</v>
       </c>
       <c r="K16">
-        <v>0.03846153846153846</v>
+        <v>3.8461538461538457E-2</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.1923076923076923</v>
+        <v>0.19230769230769229</v>
       </c>
       <c r="N16">
-        <v>0.1826923076923077</v>
+        <v>0.18269230769230771</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.1634615384615385</v>
+        <v>0.16346153846153849</v>
       </c>
       <c r="Q16">
-        <v>0.6958174904942965</v>
+        <v>0.69581749049429653</v>
       </c>
       <c r="R16">
-        <v>0.2661596958174905</v>
+        <v>0.26615969581749049</v>
       </c>
       <c r="S16">
-        <v>0.6410256410256411</v>
+        <v>0.64102564102564108</v>
       </c>
       <c r="T16">
         <v>0.1970802919708029</v>
       </c>
       <c r="U16">
-        <v>0.4452554744525548</v>
+        <v>0.44525547445255481</v>
       </c>
       <c r="V16">
-        <v>0.2372262773722628</v>
+        <v>0.23722627737226279</v>
       </c>
       <c r="W16">
         <v>0.1204379562043796</v>
       </c>
       <c r="X16">
-        <v>0.5437956204379562</v>
+        <v>0.54379562043795615</v>
       </c>
       <c r="Y16">
-        <v>0.4470198675496689</v>
+        <v>0.44701986754966888</v>
       </c>
       <c r="Z16">
-        <v>0.4752475247524752</v>
+        <v>0.47524752475247523</v>
       </c>
       <c r="AA16">
         <v>0.198019801980198</v>
       </c>
       <c r="AB16">
-        <v>0.3267326732673267</v>
+        <v>0.32673267326732669</v>
       </c>
       <c r="AC16">
-        <v>0.1666666666666667</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="AD16">
-        <v>0.392156862745098</v>
+        <v>0.39215686274509798</v>
       </c>
       <c r="AE16">
-        <v>0.1568627450980392</v>
+        <v>0.15686274509803921</v>
       </c>
       <c r="AF16">
         <v>0.1176470588235294</v>
       </c>
       <c r="AG16">
-        <v>0.1666666666666667</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="AH16">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AI16">
-        <v>0.8852459016393442</v>
+        <v>0.88524590163934425</v>
       </c>
       <c r="AJ16">
-        <v>0.6307692307692307</v>
+        <v>0.63076923076923075</v>
       </c>
       <c r="AK16">
-        <v>0.8787878787878788</v>
+        <v>0.87878787878787878</v>
       </c>
       <c r="AL16">
-        <v>0.6147540983606558</v>
+        <v>0.61475409836065575</v>
       </c>
       <c r="AM16">
-        <v>0.3805970149253731</v>
+        <v>0.38059701492537312</v>
       </c>
       <c r="AN16">
         <v>0.1044776119402985</v>
       </c>
       <c r="AO16">
-        <v>0.5789473684210527</v>
+        <v>0.57894736842105265</v>
       </c>
       <c r="AP16">
-        <v>0.2985074626865671</v>
+        <v>0.29850746268656708</v>
       </c>
       <c r="AQ16">
-        <v>0.2045454545454546</v>
+        <v>0.20454545454545461</v>
       </c>
       <c r="AR16">
         <v>0.2857142857142857</v>
@@ -4769,11 +4948,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Morelos</t>
-        </is>
+    <row r="17" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>102</v>
       </c>
       <c r="B17">
         <v>0.9776785714285714</v>
@@ -4782,58 +4959,58 @@
         <v>0.2073643410852713</v>
       </c>
       <c r="D17">
-        <v>0.2628865979381443</v>
+        <v>0.26288659793814428</v>
       </c>
       <c r="E17">
-        <v>0.09314586994727592</v>
+        <v>9.3145869947275917E-2</v>
       </c>
       <c r="F17">
         <v>2994</v>
       </c>
       <c r="G17">
-        <v>0.08009872975269369</v>
+        <v>8.0098729752693693E-2</v>
       </c>
       <c r="H17">
         <v>12633</v>
       </c>
       <c r="I17">
-        <v>0.01448990792922175</v>
+        <v>1.448990792922175E-2</v>
       </c>
       <c r="J17">
         <v>0.1625615763546798</v>
       </c>
       <c r="K17">
-        <v>0.1083743842364532</v>
+        <v>0.10837438423645319</v>
       </c>
       <c r="L17">
-        <v>0.08374384236453201</v>
+        <v>8.3743842364532015E-2</v>
       </c>
       <c r="M17">
-        <v>0.0541871921182266</v>
+        <v>5.4187192118226597E-2</v>
       </c>
       <c r="N17">
-        <v>0.06403940886699508</v>
+        <v>6.4039408866995079E-2</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.1822660098522167</v>
+        <v>0.18226600985221669</v>
       </c>
       <c r="Q17">
         <v>0.8368932038834952</v>
       </c>
       <c r="R17">
-        <v>0.1495145631067961</v>
+        <v>0.14951456310679609</v>
       </c>
       <c r="S17">
-        <v>0.7555555555555555</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="T17">
-        <v>0.3255813953488372</v>
+        <v>0.32558139534883718</v>
       </c>
       <c r="U17">
-        <v>0.3178294573643411</v>
+        <v>0.31782945736434109</v>
       </c>
       <c r="V17">
         <v>0.2073643410852713</v>
@@ -4842,49 +5019,49 @@
         <v>0.1492248062015504</v>
       </c>
       <c r="X17">
-        <v>0.5193798449612403</v>
+        <v>0.51937984496124034</v>
       </c>
       <c r="Y17">
-        <v>0.3795066413662239</v>
+        <v>0.37950664136622392</v>
       </c>
       <c r="Z17">
         <v>0.5073891625615764</v>
       </c>
       <c r="AA17">
-        <v>0.2118226600985222</v>
+        <v>0.21182266009852219</v>
       </c>
       <c r="AB17">
-        <v>0.2807881773399015</v>
+        <v>0.28078817733990152</v>
       </c>
       <c r="AC17">
-        <v>0.1293532338308458</v>
+        <v>0.12935323383084579</v>
       </c>
       <c r="AD17">
-        <v>0.1442786069651741</v>
+        <v>0.14427860696517411</v>
       </c>
       <c r="AE17">
         <v>0.2189054726368159</v>
       </c>
       <c r="AF17">
-        <v>0.1840796019900497</v>
+        <v>0.18407960199004969</v>
       </c>
       <c r="AG17">
-        <v>0.3233830845771145</v>
+        <v>0.32338308457711451</v>
       </c>
       <c r="AH17">
-        <v>0.8511904761904762</v>
+        <v>0.85119047619047616</v>
       </c>
       <c r="AI17">
         <v>0.8597560975609756</v>
       </c>
       <c r="AJ17">
-        <v>0.5514018691588785</v>
+        <v>0.55140186915887845</v>
       </c>
       <c r="AK17">
-        <v>0.935064935064935</v>
+        <v>0.93506493506493504</v>
       </c>
       <c r="AL17">
-        <v>0.6256684491978609</v>
+        <v>0.62566844919786091</v>
       </c>
       <c r="AM17">
         <v>0.4</v>
@@ -4893,16 +5070,16 @@
         <v>0.08</v>
       </c>
       <c r="AO17">
-        <v>0.4797979797979798</v>
+        <v>0.47979797979797978</v>
       </c>
       <c r="AP17">
-        <v>0.2663316582914573</v>
+        <v>0.26633165829145727</v>
       </c>
       <c r="AQ17">
-        <v>0.163265306122449</v>
+        <v>0.16326530612244899</v>
       </c>
       <c r="AR17">
-        <v>0.3645833333333333</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="AS17">
         <v>1</v>
@@ -5034,23 +5211,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>México</t>
-        </is>
+    <row r="18" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>103</v>
       </c>
       <c r="B18">
-        <v>0.9964028776978417</v>
+        <v>0.99640287769784175</v>
       </c>
       <c r="C18">
         <v>0.1174746936600959</v>
       </c>
       <c r="D18">
-        <v>0.3316981132075472</v>
+        <v>0.33169811320754722</v>
       </c>
       <c r="E18">
-        <v>0.1272637062763582</v>
+        <v>0.12726370627635819</v>
       </c>
       <c r="F18">
         <v>8650</v>
@@ -5062,112 +5237,112 @@
         <v>160579</v>
       </c>
       <c r="I18">
-        <v>0.01441903263504014</v>
+        <v>1.441903263504014E-2</v>
       </c>
       <c r="J18">
-        <v>0.06765799256505577</v>
+        <v>6.7657992565055766E-2</v>
       </c>
       <c r="K18">
-        <v>0.03605947955390335</v>
+        <v>3.6059479553903352E-2</v>
       </c>
       <c r="L18">
-        <v>0.02565055762081784</v>
+        <v>2.5650557620817839E-2</v>
       </c>
       <c r="M18">
-        <v>0.00446096654275093</v>
+        <v>4.4609665427509304E-3</v>
       </c>
       <c r="N18">
-        <v>0.008550185873605948</v>
+        <v>8.5501858736059481E-3</v>
       </c>
       <c r="O18">
-        <v>0.002602230483271375</v>
+        <v>2.6022304832713748E-3</v>
       </c>
       <c r="P18">
-        <v>0.1695167286245353</v>
+        <v>0.16951672862453529</v>
       </c>
       <c r="Q18">
-        <v>0.9327796522190501</v>
+        <v>0.93277965221905013</v>
       </c>
       <c r="R18">
-        <v>0.06254866337918505</v>
+        <v>6.2548663379185049E-2</v>
       </c>
       <c r="S18">
-        <v>0.6818181818181818</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="T18">
-        <v>0.4408630793819925</v>
+        <v>0.44086307938199248</v>
       </c>
       <c r="U18">
-        <v>0.2994139584443261</v>
+        <v>0.29941395844432611</v>
       </c>
       <c r="V18">
         <v>0.1174746936600959</v>
       </c>
       <c r="W18">
-        <v>0.1422482685135855</v>
+        <v>0.14224826851358549</v>
       </c>
       <c r="X18">
-        <v>0.5001337255950788</v>
+        <v>0.50013372559507885</v>
       </c>
       <c r="Y18">
-        <v>0.4529456771231828</v>
+        <v>0.45294567712318279</v>
       </c>
       <c r="Z18">
-        <v>0.5538576220648528</v>
+        <v>0.55385762206485278</v>
       </c>
       <c r="AA18">
-        <v>0.2631382780469624</v>
+        <v>0.26313827804696238</v>
       </c>
       <c r="AB18">
-        <v>0.1830040998881849</v>
+        <v>0.18300409988818489</v>
       </c>
       <c r="AC18">
-        <v>0.049812734082397</v>
+        <v>4.9812734082397003E-2</v>
       </c>
       <c r="AD18">
-        <v>0.4464419475655431</v>
+        <v>0.44644194756554312</v>
       </c>
       <c r="AE18">
-        <v>0.149438202247191</v>
+        <v>0.14943820224719101</v>
       </c>
       <c r="AF18">
-        <v>0.1258426966292135</v>
+        <v>0.12584269662921349</v>
       </c>
       <c r="AG18">
-        <v>0.2284644194756554</v>
+        <v>0.22846441947565541</v>
       </c>
       <c r="AH18">
-        <v>0.9178247734138972</v>
+        <v>0.91782477341389723</v>
       </c>
       <c r="AI18">
-        <v>0.9332740213523132</v>
+        <v>0.93327402135231319</v>
       </c>
       <c r="AJ18">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="AK18">
-        <v>0.951310861423221</v>
+        <v>0.95131086142322097</v>
       </c>
       <c r="AL18">
-        <v>0.5764914353219137</v>
+        <v>0.57649143532191371</v>
       </c>
       <c r="AM18">
-        <v>0.3914269599548788</v>
+        <v>0.39142695995487881</v>
       </c>
       <c r="AN18">
-        <v>0.09188275084554678</v>
+        <v>9.1882750845546785E-2</v>
       </c>
       <c r="AO18">
-        <v>0.5496313102665911</v>
+        <v>0.54963131026659107</v>
       </c>
       <c r="AP18">
-        <v>0.2887760857304005</v>
+        <v>0.28877608573040048</v>
       </c>
       <c r="AQ18">
-        <v>0.1344709897610921</v>
+        <v>0.13447098976109209</v>
       </c>
       <c r="AR18">
-        <v>0.5774767146486028</v>
+        <v>0.57747671464860284</v>
       </c>
       <c r="AS18">
         <v>1</v>
@@ -5299,20 +5474,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Nayarit</t>
-        </is>
+    <row r="19" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
       <c r="B19">
-        <v>0.9741379310344828</v>
+        <v>0.97413793103448276</v>
       </c>
       <c r="C19">
-        <v>0.2619047619047619</v>
+        <v>0.26190476190476192</v>
       </c>
       <c r="D19">
-        <v>0.4503311258278146</v>
+        <v>0.45033112582781459</v>
       </c>
       <c r="E19">
         <v>0.2375809935205184</v>
@@ -5327,31 +5500,31 @@
         <v>1885</v>
       </c>
       <c r="I19">
-        <v>0.04111320329622067</v>
+        <v>4.1113203296220667E-2</v>
       </c>
       <c r="J19">
-        <v>0.08099688473520249</v>
+        <v>8.0996884735202487E-2</v>
       </c>
       <c r="K19">
-        <v>0.01246105919003115</v>
+        <v>1.2461059190031151E-2</v>
       </c>
       <c r="L19">
-        <v>0.003115264797507788</v>
+        <v>3.1152647975077881E-3</v>
       </c>
       <c r="M19">
-        <v>0.06230529595015576</v>
+        <v>6.2305295950155763E-2</v>
       </c>
       <c r="N19">
-        <v>0.1308411214953271</v>
+        <v>0.13084112149532709</v>
       </c>
       <c r="O19">
-        <v>0.003115264797507788</v>
+        <v>3.1152647975077881E-3</v>
       </c>
       <c r="P19">
         <v>0.1121495327102804</v>
       </c>
       <c r="Q19">
-        <v>0.8784810126582279</v>
+        <v>0.87848101265822787</v>
       </c>
       <c r="R19">
         <v>0.1012658227848101</v>
@@ -5363,76 +5536,76 @@
         <v>0.2452380952380952</v>
       </c>
       <c r="U19">
-        <v>0.3523809523809524</v>
+        <v>0.35238095238095241</v>
       </c>
       <c r="V19">
-        <v>0.2619047619047619</v>
+        <v>0.26190476190476192</v>
       </c>
       <c r="W19">
         <v>0.1404761904761905</v>
       </c>
       <c r="X19">
-        <v>0.3373493975903614</v>
+        <v>0.33734939759036142</v>
       </c>
       <c r="Y19">
-        <v>0.3938679245283019</v>
+        <v>0.39386792452830188</v>
       </c>
       <c r="Z19">
-        <v>0.2020547945205479</v>
+        <v>0.20205479452054789</v>
       </c>
       <c r="AA19">
-        <v>0.2842465753424658</v>
+        <v>0.28424657534246578</v>
       </c>
       <c r="AB19">
-        <v>0.5136986301369864</v>
+        <v>0.51369863013698636</v>
       </c>
       <c r="AC19">
-        <v>0.534375</v>
+        <v>0.53437500000000004</v>
       </c>
       <c r="AD19">
-        <v>0.2875</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="AE19">
-        <v>0.08125</v>
+        <v>8.1250000000000003E-2</v>
       </c>
       <c r="AF19">
-        <v>0.03125</v>
+        <v>3.125E-2</v>
       </c>
       <c r="AG19">
-        <v>0.065625</v>
+        <v>6.5625000000000003E-2</v>
       </c>
       <c r="AH19">
         <v>0.6310679611650486</v>
       </c>
       <c r="AI19">
-        <v>0.6081081081081081</v>
+        <v>0.60810810810810811</v>
       </c>
       <c r="AJ19">
-        <v>0.3363636363636364</v>
+        <v>0.33636363636363642</v>
       </c>
       <c r="AK19">
-        <v>0.4745762711864407</v>
+        <v>0.47457627118644069</v>
       </c>
       <c r="AL19">
         <v>0.7639751552795031</v>
       </c>
       <c r="AM19">
-        <v>0.6463414634146342</v>
+        <v>0.64634146341463417</v>
       </c>
       <c r="AN19">
-        <v>0.3053892215568862</v>
+        <v>0.30538922155688619</v>
       </c>
       <c r="AO19">
-        <v>0.2560975609756098</v>
+        <v>0.25609756097560982</v>
       </c>
       <c r="AP19">
-        <v>0.6946107784431138</v>
+        <v>0.69461077844311381</v>
       </c>
       <c r="AQ19">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AR19">
-        <v>0.4755555555555556</v>
+        <v>0.47555555555555562</v>
       </c>
       <c r="AS19">
         <v>1</v>
@@ -5564,140 +5737,138 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Nuevo León</t>
-        </is>
+    <row r="20" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>105</v>
       </c>
       <c r="B20">
-        <v>0.9534412955465587</v>
+        <v>0.95344129554655865</v>
       </c>
       <c r="C20">
-        <v>0.2478793590951932</v>
+        <v>0.24787935909519321</v>
       </c>
       <c r="D20">
-        <v>0.2751091703056768</v>
+        <v>0.27510917030567678</v>
       </c>
       <c r="E20">
-        <v>0.2533452274754683</v>
+        <v>0.25334522747546828</v>
       </c>
       <c r="F20">
         <v>3085</v>
       </c>
       <c r="G20">
-        <v>0.2075611041990642</v>
+        <v>0.20756110419906421</v>
       </c>
       <c r="H20">
         <v>6749</v>
       </c>
       <c r="I20">
-        <v>0.09154330541708033</v>
+        <v>9.1543305417080334E-2</v>
       </c>
       <c r="J20">
         <v>0.1560773480662983</v>
       </c>
       <c r="K20">
-        <v>0.06767955801104972</v>
+        <v>6.7679558011049717E-2</v>
       </c>
       <c r="L20">
-        <v>0.006906077348066298</v>
+        <v>6.9060773480662981E-3</v>
       </c>
       <c r="M20">
-        <v>0.06077348066298342</v>
+        <v>6.0773480662983423E-2</v>
       </c>
       <c r="N20">
-        <v>0.1850828729281768</v>
+        <v>0.18508287292817679</v>
       </c>
       <c r="O20">
-        <v>0.00138121546961326</v>
+        <v>1.38121546961326E-3</v>
       </c>
       <c r="P20">
-        <v>0.1312154696132597</v>
+        <v>0.13121546961325969</v>
       </c>
       <c r="Q20">
-        <v>0.8711538461538462</v>
+        <v>0.87115384615384617</v>
       </c>
       <c r="R20">
-        <v>0.08557692307692308</v>
+        <v>8.5576923076923078E-2</v>
       </c>
       <c r="S20">
-        <v>0.6299212598425197</v>
+        <v>0.62992125984251968</v>
       </c>
       <c r="T20">
-        <v>0.3138548539114043</v>
+        <v>0.31385485391140427</v>
       </c>
       <c r="U20">
-        <v>0.2865221489161169</v>
+        <v>0.28652214891611688</v>
       </c>
       <c r="V20">
-        <v>0.2478793590951932</v>
+        <v>0.24787935909519321</v>
       </c>
       <c r="W20">
-        <v>0.1517436380772856</v>
+        <v>0.15174363807728561</v>
       </c>
       <c r="X20">
-        <v>0.5506149479659413</v>
+        <v>0.55061494796594135</v>
       </c>
       <c r="Y20">
-        <v>0.4537892791127542</v>
+        <v>0.45378927911275418</v>
       </c>
       <c r="Z20">
-        <v>0.5829787234042553</v>
+        <v>0.58297872340425527</v>
       </c>
       <c r="AA20">
-        <v>0.1872340425531915</v>
+        <v>0.18723404255319151</v>
       </c>
       <c r="AB20">
-        <v>0.2297872340425532</v>
+        <v>0.22978723404255319</v>
       </c>
       <c r="AC20">
-        <v>0.3310152990264256</v>
+        <v>0.33101529902642562</v>
       </c>
       <c r="AD20">
-        <v>0.3059805285118219</v>
+        <v>0.30598052851182189</v>
       </c>
       <c r="AE20">
-        <v>0.07927677329624479</v>
+        <v>7.9276773296244787E-2</v>
       </c>
       <c r="AF20">
-        <v>0.07232267037552156</v>
+        <v>7.2322670375521564E-2</v>
       </c>
       <c r="AG20">
-        <v>0.2114047287899861</v>
+        <v>0.21140472878998609</v>
       </c>
       <c r="AH20">
-        <v>0.7327327327327328</v>
+        <v>0.73273273273273276</v>
       </c>
       <c r="AI20">
-        <v>0.7796052631578947</v>
+        <v>0.77960526315789469</v>
       </c>
       <c r="AJ20">
-        <v>0.6007604562737643</v>
+        <v>0.60076045627376429</v>
       </c>
       <c r="AK20">
-        <v>0.8198757763975155</v>
+        <v>0.81987577639751552</v>
       </c>
       <c r="AL20">
-        <v>0.7073170731707317</v>
+        <v>0.70731707317073167</v>
       </c>
       <c r="AM20">
-        <v>0.5255623721881391</v>
+        <v>0.52556237218813906</v>
       </c>
       <c r="AN20">
         <v>0.1314168377823409</v>
       </c>
       <c r="AO20">
-        <v>0.4504132231404959</v>
+        <v>0.45041322314049592</v>
       </c>
       <c r="AP20">
-        <v>0.4816326530612245</v>
+        <v>0.48163265306122449</v>
       </c>
       <c r="AQ20">
-        <v>0.1468354430379747</v>
+        <v>0.14683544303797469</v>
       </c>
       <c r="AR20">
-        <v>0.4424460431654677</v>
+        <v>0.44244604316546771</v>
       </c>
       <c r="AS20">
         <v>1</v>
@@ -5829,65 +6000,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Oaxaca</t>
-        </is>
+    <row r="21" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>106</v>
       </c>
       <c r="B21">
         <v>0.9802816901408451</v>
       </c>
       <c r="C21">
-        <v>0.408284023668639</v>
+        <v>0.40828402366863897</v>
       </c>
       <c r="D21">
-        <v>0.195</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="E21">
-        <v>0.09879839786381843</v>
+        <v>9.879839786381843E-2</v>
       </c>
       <c r="F21">
         <v>3221</v>
       </c>
       <c r="G21">
-        <v>0.153688816586751</v>
+        <v>0.15368881658675099</v>
       </c>
       <c r="H21">
         <v>9901</v>
       </c>
       <c r="I21">
-        <v>0.01561155064132948</v>
+        <v>1.5611550641329479E-2</v>
       </c>
       <c r="J21">
-        <v>0.1148325358851675</v>
+        <v>0.11483253588516749</v>
       </c>
       <c r="K21">
-        <v>0.004784688995215311</v>
+        <v>4.7846889952153108E-3</v>
       </c>
       <c r="L21">
-        <v>0.01913875598086124</v>
+        <v>1.913875598086124E-2</v>
       </c>
       <c r="M21">
-        <v>0.07655502392344497</v>
+        <v>7.6555023923444973E-2</v>
       </c>
       <c r="N21">
-        <v>0.09569377990430622</v>
+        <v>9.569377990430622E-2</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.1052631578947368</v>
+        <v>0.10526315789473679</v>
       </c>
       <c r="Q21">
-        <v>0.861731843575419</v>
+        <v>0.86173184357541899</v>
       </c>
       <c r="R21">
-        <v>0.1215083798882682</v>
+        <v>0.12150837988826819</v>
       </c>
       <c r="S21">
-        <v>0.3384615384615385</v>
+        <v>0.33846153846153848</v>
       </c>
       <c r="T21">
         <v>0.2588757396449704</v>
@@ -5896,73 +6065,73 @@
         <v>0.25</v>
       </c>
       <c r="V21">
-        <v>0.408284023668639</v>
+        <v>0.40828402366863897</v>
       </c>
       <c r="W21">
-        <v>0.08284023668639054</v>
+        <v>8.2840236686390539E-2</v>
       </c>
       <c r="X21">
-        <v>0.4094955489614243</v>
+        <v>0.40949554896142432</v>
       </c>
       <c r="Y21">
-        <v>0.3840361445783133</v>
+        <v>0.38403614457831331</v>
       </c>
       <c r="Z21">
-        <v>0.2955665024630542</v>
+        <v>0.29556650246305421</v>
       </c>
       <c r="AA21">
-        <v>0.2167487684729064</v>
+        <v>0.21674876847290639</v>
       </c>
       <c r="AB21">
-        <v>0.4876847290640394</v>
+        <v>0.48768472906403942</v>
       </c>
       <c r="AC21">
         <v>0.3125</v>
       </c>
       <c r="AD21">
-        <v>0.3365384615384616</v>
+        <v>0.33653846153846162</v>
       </c>
       <c r="AE21">
         <v>0.1105769230769231</v>
       </c>
       <c r="AF21">
-        <v>0.04326923076923077</v>
+        <v>4.3269230769230768E-2</v>
       </c>
       <c r="AG21">
-        <v>0.1971153846153846</v>
+        <v>0.19711538461538461</v>
       </c>
       <c r="AH21">
-        <v>0.7771428571428571</v>
+        <v>0.77714285714285714</v>
       </c>
       <c r="AI21">
-        <v>0.7869822485207101</v>
+        <v>0.78698224852071008</v>
       </c>
       <c r="AJ21">
-        <v>0.6195652173913043</v>
+        <v>0.61956521739130432</v>
       </c>
       <c r="AK21">
         <v>0.7678571428571429</v>
       </c>
       <c r="AL21">
-        <v>0.6440677966101694</v>
+        <v>0.64406779661016944</v>
       </c>
       <c r="AM21">
-        <v>0.5753968253968254</v>
+        <v>0.57539682539682535</v>
       </c>
       <c r="AN21">
-        <v>0.1882352941176471</v>
+        <v>0.18823529411764711</v>
       </c>
       <c r="AO21">
-        <v>0.3690476190476191</v>
+        <v>0.36904761904761912</v>
       </c>
       <c r="AP21">
-        <v>0.2913385826771653</v>
+        <v>0.29133858267716528</v>
       </c>
       <c r="AQ21">
-        <v>0.01886792452830189</v>
+        <v>1.886792452830189E-2</v>
       </c>
       <c r="AR21">
-        <v>0.2657342657342657</v>
+        <v>0.26573426573426567</v>
       </c>
       <c r="AS21">
         <v>1</v>
@@ -6094,17 +6263,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Puebla</t>
-        </is>
+    <row r="22" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>107</v>
       </c>
       <c r="B22">
-        <v>0.9888475836431226</v>
+        <v>0.98884758364312264</v>
       </c>
       <c r="C22">
-        <v>0.1276381909547739</v>
+        <v>0.12763819095477391</v>
       </c>
       <c r="D22">
         <v>0.1818181818181818</v>
@@ -6116,19 +6283,19 @@
         <v>3537</v>
       </c>
       <c r="G22">
-        <v>0.1344586168693936</v>
+        <v>0.13445861686939359</v>
       </c>
       <c r="H22">
         <v>41828</v>
       </c>
       <c r="I22">
-        <v>0.01565436938941469</v>
+        <v>1.5654369389414689E-2</v>
       </c>
       <c r="J22">
         <v>0.1176470588235294</v>
       </c>
       <c r="K22">
-        <v>0.08403361344537816</v>
+        <v>8.4033613445378158E-2</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -6146,40 +6313,40 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="Q22">
-        <v>0.7326732673267327</v>
+        <v>0.73267326732673266</v>
       </c>
       <c r="R22">
-        <v>0.2188118811881188</v>
+        <v>0.21881188118811881</v>
       </c>
       <c r="S22">
-        <v>0.4057971014492754</v>
+        <v>0.40579710144927539</v>
       </c>
       <c r="T22">
-        <v>0.3457286432160804</v>
+        <v>0.34572864321608038</v>
       </c>
       <c r="U22">
-        <v>0.328643216080402</v>
+        <v>0.32864321608040198</v>
       </c>
       <c r="V22">
-        <v>0.1276381909547739</v>
+        <v>0.12763819095477391</v>
       </c>
       <c r="W22">
         <v>0.1979899497487437</v>
       </c>
       <c r="X22">
-        <v>0.5618090452261306</v>
+        <v>0.56180904522613062</v>
       </c>
       <c r="Y22">
-        <v>0.5086042065009561</v>
+        <v>0.50860420650095606</v>
       </c>
       <c r="Z22">
-        <v>0.4086956521739131</v>
+        <v>0.40869565217391313</v>
       </c>
       <c r="AA22">
         <v>0.2608695652173913</v>
       </c>
       <c r="AB22">
-        <v>0.3304347826086956</v>
+        <v>0.33043478260869558</v>
       </c>
       <c r="AC22">
         <v>0.2711864406779661</v>
@@ -6191,40 +6358,40 @@
         <v>0.1440677966101695</v>
       </c>
       <c r="AF22">
-        <v>0.01694915254237288</v>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="AG22">
-        <v>0.1949152542372881</v>
+        <v>0.19491525423728809</v>
       </c>
       <c r="AH22">
-        <v>0.8546511627906976</v>
+        <v>0.85465116279069764</v>
       </c>
       <c r="AI22">
-        <v>0.8807339449541285</v>
+        <v>0.88073394495412849</v>
       </c>
       <c r="AJ22">
-        <v>0.7007874015748031</v>
+        <v>0.70078740157480313</v>
       </c>
       <c r="AK22">
-        <v>0.8934010152284264</v>
+        <v>0.89340101522842641</v>
       </c>
       <c r="AL22">
-        <v>0.6948818897637795</v>
+        <v>0.69488188976377951</v>
       </c>
       <c r="AM22">
-        <v>0.5112781954887218</v>
+        <v>0.51127819548872178</v>
       </c>
       <c r="AN22">
-        <v>0.1713747645951036</v>
+        <v>0.17137476459510359</v>
       </c>
       <c r="AO22">
-        <v>0.4141221374045801</v>
+        <v>0.41412213740458009</v>
       </c>
       <c r="AP22">
         <v>0.3615819209039548</v>
       </c>
       <c r="AQ22">
-        <v>0.09302325581395349</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="AR22">
         <v>0.234375</v>
@@ -6359,50 +6526,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Querétaro</t>
-        </is>
+    <row r="23" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>108</v>
       </c>
       <c r="B23">
         <v>0.9915492957746479</v>
       </c>
       <c r="C23">
-        <v>0.2267716535433071</v>
+        <v>0.22677165354330711</v>
       </c>
       <c r="D23">
         <v>0.4989429175475687</v>
       </c>
       <c r="E23">
-        <v>0.3060344827586207</v>
+        <v>0.30603448275862072</v>
       </c>
       <c r="F23">
         <v>649</v>
       </c>
       <c r="G23">
-        <v>0.5556166785929467</v>
+        <v>0.55561667859294672</v>
       </c>
       <c r="H23">
         <v>16781</v>
       </c>
       <c r="I23">
-        <v>0.0127329064366183</v>
+        <v>1.2732906436618299E-2</v>
       </c>
       <c r="J23">
-        <v>0.20997920997921</v>
+        <v>0.20997920997920999</v>
       </c>
       <c r="K23">
-        <v>0.02286902286902287</v>
+        <v>2.286902286902287E-2</v>
       </c>
       <c r="L23">
-        <v>0.004158004158004158</v>
+        <v>4.1580041580041582E-3</v>
       </c>
       <c r="M23">
-        <v>0.05405405405405406</v>
+        <v>5.4054054054054057E-2</v>
       </c>
       <c r="N23">
-        <v>0.106029106029106</v>
+        <v>0.10602910602910599</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -6411,88 +6576,88 @@
         <v>0.1392931392931393</v>
       </c>
       <c r="Q23">
-        <v>0.8502994011976048</v>
+        <v>0.85029940119760483</v>
       </c>
       <c r="R23">
         <v>0.1317365269461078</v>
       </c>
       <c r="S23">
-        <v>0.4696969696969697</v>
+        <v>0.46969696969696972</v>
       </c>
       <c r="T23">
-        <v>0.3433070866141733</v>
+        <v>0.34330708661417331</v>
       </c>
       <c r="U23">
-        <v>0.2645669291338583</v>
+        <v>0.26456692913385832</v>
       </c>
       <c r="V23">
-        <v>0.2267716535433071</v>
+        <v>0.22677165354330711</v>
       </c>
       <c r="W23">
         <v>0.1653543307086614</v>
       </c>
       <c r="X23">
-        <v>0.6006339144215531</v>
+        <v>0.60063391442155312</v>
       </c>
       <c r="Y23">
         <v>0.4554744525547445</v>
       </c>
       <c r="Z23">
-        <v>0.2515723270440252</v>
+        <v>0.25157232704402521</v>
       </c>
       <c r="AA23">
-        <v>0.350104821802935</v>
+        <v>0.35010482180293501</v>
       </c>
       <c r="AB23">
-        <v>0.3983228511530398</v>
+        <v>0.39832285115303978</v>
       </c>
       <c r="AC23">
-        <v>0.4528301886792453</v>
+        <v>0.45283018867924529</v>
       </c>
       <c r="AD23">
-        <v>0.2935010482180294</v>
+        <v>0.29350104821802941</v>
       </c>
       <c r="AE23">
         <v>0.1090146750524109</v>
       </c>
       <c r="AF23">
-        <v>0.03773584905660377</v>
+        <v>3.7735849056603772E-2</v>
       </c>
       <c r="AG23">
         <v>0.1069182389937107</v>
       </c>
       <c r="AH23">
-        <v>0.8577981651376146</v>
+        <v>0.85779816513761464</v>
       </c>
       <c r="AI23">
         <v>0.9285714285714286</v>
       </c>
       <c r="AJ23">
-        <v>0.8263888888888888</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="AK23">
-        <v>0.9333333333333333</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="AL23">
-        <v>0.5397923875432526</v>
+        <v>0.53979238754325265</v>
       </c>
       <c r="AM23">
-        <v>0.4903846153846154</v>
+        <v>0.49038461538461542</v>
       </c>
       <c r="AN23">
         <v>0.1157556270096463</v>
       </c>
       <c r="AO23">
-        <v>0.4967741935483871</v>
+        <v>0.49677419354838709</v>
       </c>
       <c r="AP23">
-        <v>0.5288461538461539</v>
+        <v>0.52884615384615385</v>
       </c>
       <c r="AQ23">
-        <v>0.1709401709401709</v>
+        <v>0.17094017094017089</v>
       </c>
       <c r="AR23">
-        <v>0.6062322946175638</v>
+        <v>0.60623229461756378</v>
       </c>
       <c r="AS23">
         <v>1</v>
@@ -6624,20 +6789,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Quintana Roo</t>
-        </is>
+    <row r="24" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>109</v>
       </c>
       <c r="B24">
-        <v>0.9918032786885246</v>
+        <v>0.99180327868852458</v>
       </c>
       <c r="C24">
-        <v>0.2406143344709898</v>
+        <v>0.24061433447098979</v>
       </c>
       <c r="D24">
-        <v>0.2264150943396226</v>
+        <v>0.22641509433962259</v>
       </c>
       <c r="E24">
         <v>0.1522435897435897</v>
@@ -6652,19 +6815,19 @@
         <v>9276</v>
       </c>
       <c r="I24">
-        <v>0.004475863529025913</v>
+        <v>4.4758635290259134E-3</v>
       </c>
       <c r="J24">
-        <v>0.136986301369863</v>
+        <v>0.13698630136986301</v>
       </c>
       <c r="K24">
-        <v>0.0182648401826484</v>
+        <v>1.8264840182648401E-2</v>
       </c>
       <c r="L24">
-        <v>0.0136986301369863</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="M24">
-        <v>0.1780821917808219</v>
+        <v>0.17808219178082191</v>
       </c>
       <c r="N24">
         <v>0.1095890410958904</v>
@@ -6673,91 +6836,91 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.0228310502283105</v>
+        <v>2.2831050228310501E-2</v>
       </c>
       <c r="Q24">
-        <v>0.7310344827586207</v>
+        <v>0.73103448275862071</v>
       </c>
       <c r="R24">
-        <v>0.2172413793103448</v>
+        <v>0.21724137931034479</v>
       </c>
       <c r="S24">
-        <v>0.3934426229508197</v>
+        <v>0.39344262295081972</v>
       </c>
       <c r="T24">
-        <v>0.310580204778157</v>
+        <v>0.31058020477815701</v>
       </c>
       <c r="U24">
-        <v>0.2508532423208191</v>
+        <v>0.25085324232081913</v>
       </c>
       <c r="V24">
-        <v>0.2406143344709898</v>
+        <v>0.24061433447098979</v>
       </c>
       <c r="W24">
         <v>0.1979522184300341</v>
       </c>
       <c r="X24">
-        <v>0.4691780821917808</v>
+        <v>0.46917808219178081</v>
       </c>
       <c r="Y24">
-        <v>0.4259567387687188</v>
+        <v>0.42595673876871881</v>
       </c>
       <c r="Z24">
-        <v>0.4147465437788018</v>
+        <v>0.41474654377880182</v>
       </c>
       <c r="AA24">
-        <v>0.2350230414746544</v>
+        <v>0.23502304147465439</v>
       </c>
       <c r="AB24">
-        <v>0.3502304147465438</v>
+        <v>0.35023041474654382</v>
       </c>
       <c r="AC24">
         <v>0.3686635944700461</v>
       </c>
       <c r="AD24">
-        <v>0.2672811059907834</v>
+        <v>0.26728110599078342</v>
       </c>
       <c r="AE24">
-        <v>0.05990783410138249</v>
+        <v>5.9907834101382493E-2</v>
       </c>
       <c r="AF24">
-        <v>0.05069124423963134</v>
+        <v>5.0691244239631339E-2</v>
       </c>
       <c r="AG24">
-        <v>0.2534562211981567</v>
+        <v>0.25345622119815669</v>
       </c>
       <c r="AH24">
-        <v>0.8021978021978022</v>
+        <v>0.80219780219780223</v>
       </c>
       <c r="AI24">
         <v>0.8571428571428571</v>
       </c>
       <c r="AJ24">
-        <v>0.4680851063829787</v>
+        <v>0.46808510638297868</v>
       </c>
       <c r="AK24">
-        <v>0.9396551724137931</v>
+        <v>0.93965517241379315</v>
       </c>
       <c r="AL24">
-        <v>0.6382113821138211</v>
+        <v>0.63821138211382111</v>
       </c>
       <c r="AM24">
-        <v>0.5568627450980392</v>
+        <v>0.55686274509803924</v>
       </c>
       <c r="AN24">
         <v>0.15625</v>
       </c>
       <c r="AO24">
-        <v>0.4588235294117647</v>
+        <v>0.45882352941176469</v>
       </c>
       <c r="AP24">
         <v>0.359375</v>
       </c>
       <c r="AQ24">
-        <v>0.103448275862069</v>
+        <v>0.10344827586206901</v>
       </c>
       <c r="AR24">
-        <v>0.3089430894308943</v>
+        <v>0.30894308943089432</v>
       </c>
       <c r="AS24">
         <v>1</v>
@@ -6889,20 +7052,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>San Luis Potosí</t>
-        </is>
+    <row r="25" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>110</v>
       </c>
       <c r="B25">
-        <v>0.9886363636363636</v>
+        <v>0.98863636363636365</v>
       </c>
       <c r="C25">
-        <v>0.4087591240875912</v>
+        <v>0.40875912408759119</v>
       </c>
       <c r="D25">
-        <v>0.1721854304635762</v>
+        <v>0.17218543046357621</v>
       </c>
       <c r="E25">
         <v>0.1326530612244898</v>
@@ -6911,112 +7072,112 @@
         <v>1932</v>
       </c>
       <c r="G25">
-        <v>0.1702068046153311</v>
+        <v>0.17020680461533111</v>
       </c>
       <c r="H25">
         <v>13023</v>
       </c>
       <c r="I25">
-        <v>0.009114462776996762</v>
+        <v>9.1144627769967623E-3</v>
       </c>
       <c r="J25">
         <v>0.2151898734177215</v>
       </c>
       <c r="K25">
-        <v>0.04430379746835443</v>
+        <v>4.4303797468354431E-2</v>
       </c>
       <c r="L25">
-        <v>0.01265822784810127</v>
+        <v>1.2658227848101271E-2</v>
       </c>
       <c r="M25">
-        <v>0.05063291139240506</v>
+        <v>5.0632911392405063E-2</v>
       </c>
       <c r="N25">
-        <v>0.0949367088607595</v>
+        <v>9.49367088607595E-2</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.08860759493670886</v>
+        <v>8.8607594936708861E-2</v>
       </c>
       <c r="Q25">
-        <v>0.8507194244604317</v>
+        <v>0.85071942446043169</v>
       </c>
       <c r="R25">
-        <v>0.1276978417266187</v>
+        <v>0.12769784172661869</v>
       </c>
       <c r="S25">
         <v>0.46875</v>
       </c>
       <c r="T25">
-        <v>0.2043795620437956</v>
+        <v>0.20437956204379559</v>
       </c>
       <c r="U25">
-        <v>0.2755474452554745</v>
+        <v>0.27554744525547448</v>
       </c>
       <c r="V25">
-        <v>0.4087591240875912</v>
+        <v>0.40875912408759119</v>
       </c>
       <c r="W25">
         <v>0.1113138686131387</v>
       </c>
       <c r="X25">
-        <v>0.4936014625228519</v>
+        <v>0.49360146252285192</v>
       </c>
       <c r="Y25">
-        <v>0.3941176470588235</v>
+        <v>0.39411764705882352</v>
       </c>
       <c r="Z25">
-        <v>0.4210526315789473</v>
+        <v>0.42105263157894729</v>
       </c>
       <c r="AA25">
-        <v>0.1973684210526316</v>
+        <v>0.19736842105263161</v>
       </c>
       <c r="AB25">
-        <v>0.3815789473684211</v>
+        <v>0.38157894736842107</v>
       </c>
       <c r="AC25">
         <v>0.2356687898089172</v>
       </c>
       <c r="AD25">
-        <v>0.4904458598726115</v>
+        <v>0.49044585987261152</v>
       </c>
       <c r="AE25">
         <v>0.1019108280254777</v>
       </c>
       <c r="AF25">
-        <v>0.01910828025477707</v>
+        <v>1.9108280254777069E-2</v>
       </c>
       <c r="AG25">
-        <v>0.1528662420382166</v>
+        <v>0.15286624203821661</v>
       </c>
       <c r="AH25">
         <v>0.8214285714285714</v>
       </c>
       <c r="AI25">
-        <v>0.8211920529801324</v>
+        <v>0.82119205298013243</v>
       </c>
       <c r="AJ25">
         <v>0.6651785714285714</v>
       </c>
       <c r="AK25">
-        <v>0.7868852459016393</v>
+        <v>0.78688524590163933</v>
       </c>
       <c r="AL25">
-        <v>0.5351351351351351</v>
+        <v>0.53513513513513511</v>
       </c>
       <c r="AM25">
-        <v>0.5174129353233831</v>
+        <v>0.51741293532338306</v>
       </c>
       <c r="AN25">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="AO25">
-        <v>0.4477611940298508</v>
+        <v>0.44776119402985082</v>
       </c>
       <c r="AP25">
-        <v>0.2686567164179104</v>
+        <v>0.26865671641791039</v>
       </c>
       <c r="AQ25">
         <v>0.1166666666666667</v>
@@ -7154,17 +7315,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Sinaloa</t>
-        </is>
+    <row r="26" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>111</v>
       </c>
       <c r="B26">
         <v>0.9555555555555556</v>
       </c>
       <c r="C26">
-        <v>0.4581005586592179</v>
+        <v>0.45810055865921789</v>
       </c>
       <c r="D26">
         <v>0.4921875</v>
@@ -7176,118 +7335,118 @@
         <v>2821</v>
       </c>
       <c r="G26">
-        <v>0.07173285143088796</v>
+        <v>7.1732851430887964E-2</v>
       </c>
       <c r="H26">
         <v>15041</v>
       </c>
       <c r="I26">
-        <v>0.008634564037312394</v>
+        <v>8.6345640373123936E-3</v>
       </c>
       <c r="J26">
-        <v>0.1625441696113074</v>
+        <v>0.16254416961130741</v>
       </c>
       <c r="K26">
-        <v>0.03180212014134275</v>
+        <v>3.1802120141342753E-2</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0.04946996466431095</v>
+        <v>4.9469964664310952E-2</v>
       </c>
       <c r="N26">
-        <v>0.1908127208480565</v>
+        <v>0.19081272084805651</v>
       </c>
       <c r="O26">
-        <v>0.00353356890459364</v>
+        <v>3.53356890459364E-3</v>
       </c>
       <c r="P26">
         <v>0.1236749116607774</v>
       </c>
       <c r="Q26">
-        <v>0.775</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="R26">
         <v>0.1925</v>
       </c>
       <c r="S26">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="T26">
-        <v>0.2513966480446927</v>
+        <v>0.25139664804469269</v>
       </c>
       <c r="U26">
         <v>0.1201117318435754</v>
       </c>
       <c r="V26">
-        <v>0.4581005586592179</v>
+        <v>0.45810055865921789</v>
       </c>
       <c r="W26">
-        <v>0.170391061452514</v>
+        <v>0.17039106145251401</v>
       </c>
       <c r="X26">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y26">
-        <v>0.38125</v>
+        <v>0.38124999999999998</v>
       </c>
       <c r="Z26">
-        <v>0.2066420664206642</v>
+        <v>0.20664206642066421</v>
       </c>
       <c r="AA26">
-        <v>0.2546125461254612</v>
+        <v>0.25461254612546119</v>
       </c>
       <c r="AB26">
-        <v>0.5387453874538746</v>
+        <v>0.53874538745387457</v>
       </c>
       <c r="AC26">
-        <v>0.3416370106761566</v>
+        <v>0.34163701067615659</v>
       </c>
       <c r="AD26">
         <v>0.302491103202847</v>
       </c>
       <c r="AE26">
-        <v>0.1423487544483986</v>
+        <v>0.14234875444839859</v>
       </c>
       <c r="AF26">
-        <v>0.04626334519572953</v>
+        <v>4.6263345195729527E-2</v>
       </c>
       <c r="AG26">
-        <v>0.1672597864768683</v>
+        <v>0.16725978647686829</v>
       </c>
       <c r="AH26">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="AI26">
-        <v>0.7209302325581395</v>
+        <v>0.72093023255813948</v>
       </c>
       <c r="AJ26">
-        <v>0.3780487804878049</v>
+        <v>0.37804878048780488</v>
       </c>
       <c r="AK26">
-        <v>0.5573770491803278</v>
+        <v>0.55737704918032782</v>
       </c>
       <c r="AL26">
-        <v>0.8275862068965517</v>
+        <v>0.82758620689655171</v>
       </c>
       <c r="AM26">
-        <v>0.6311475409836066</v>
+        <v>0.63114754098360659</v>
       </c>
       <c r="AN26">
-        <v>0.3388429752066116</v>
+        <v>0.33884297520661161</v>
       </c>
       <c r="AO26">
-        <v>0.2051282051282051</v>
+        <v>0.20512820512820509</v>
       </c>
       <c r="AP26">
-        <v>0.5785123966942148</v>
+        <v>0.57851239669421484</v>
       </c>
       <c r="AQ26">
-        <v>0.3555555555555556</v>
+        <v>0.35555555555555562</v>
       </c>
       <c r="AR26">
-        <v>0.5121951219512195</v>
+        <v>0.51219512195121952</v>
       </c>
       <c r="AS26">
         <v>1</v>
@@ -7419,83 +7578,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Sonora</t>
-        </is>
+    <row r="27" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>112</v>
       </c>
       <c r="B27">
-        <v>0.9913544668587896</v>
+        <v>0.99135446685878958</v>
       </c>
       <c r="C27">
         <v>0.1730769230769231</v>
       </c>
       <c r="D27">
-        <v>0.5978618421052632</v>
+        <v>0.59786184210526316</v>
       </c>
       <c r="E27">
-        <v>0.367699642431466</v>
+        <v>0.36769964243146602</v>
       </c>
       <c r="F27">
         <v>4084</v>
       </c>
       <c r="G27">
-        <v>0.08574928583332866</v>
+        <v>8.5749285833328664E-2</v>
       </c>
       <c r="H27">
         <v>10292</v>
       </c>
       <c r="I27">
-        <v>0.0449160066489861</v>
+        <v>4.4916006648986102E-2</v>
       </c>
       <c r="J27">
-        <v>0.03384367445608381</v>
+        <v>3.3843674456083807E-2</v>
       </c>
       <c r="K27">
-        <v>0.0016116035455278</v>
+        <v>1.6116035455278001E-3</v>
       </c>
       <c r="L27">
-        <v>0.0016116035455278</v>
+        <v>1.6116035455278001E-3</v>
       </c>
       <c r="M27">
         <v>0.1418211120064464</v>
       </c>
       <c r="N27">
-        <v>0.3585817888799355</v>
+        <v>0.35858178887993553</v>
       </c>
       <c r="O27">
-        <v>0.0016116035455278</v>
+        <v>1.6116035455278001E-3</v>
       </c>
       <c r="P27">
-        <v>0.06285253827558421</v>
+        <v>6.2852538275584208E-2</v>
       </c>
       <c r="Q27">
-        <v>0.6752029981261711</v>
+        <v>0.67520299812617113</v>
       </c>
       <c r="R27">
-        <v>0.3073079325421612</v>
+        <v>0.30730793254216121</v>
       </c>
       <c r="S27">
-        <v>0.1457142857142857</v>
+        <v>0.14571428571428571</v>
       </c>
       <c r="T27">
-        <v>0.3790322580645161</v>
+        <v>0.37903225806451613</v>
       </c>
       <c r="U27">
-        <v>0.2109181141439206</v>
+        <v>0.21091811414392059</v>
       </c>
       <c r="V27">
         <v>0.1730769230769231</v>
       </c>
       <c r="W27">
-        <v>0.2369727047146402</v>
+        <v>0.23697270471464019</v>
       </c>
       <c r="X27">
-        <v>0.4131922837585563</v>
+        <v>0.41319228375855632</v>
       </c>
       <c r="Y27">
-        <v>0.3919344675488343</v>
+        <v>0.39193446754883432</v>
       </c>
       <c r="Z27">
         <v>0.1156405990016639</v>
@@ -7504,55 +7661,55 @@
         <v>0.4084858569051581</v>
       </c>
       <c r="AB27">
-        <v>0.4758735440931781</v>
+        <v>0.47587354409317811</v>
       </c>
       <c r="AC27">
-        <v>0.5194174757281553</v>
+        <v>0.51941747572815533</v>
       </c>
       <c r="AD27">
-        <v>0.348705501618123</v>
+        <v>0.34870550161812303</v>
       </c>
       <c r="AE27">
-        <v>0.0825242718446602</v>
+        <v>8.2524271844660199E-2</v>
       </c>
       <c r="AF27">
-        <v>0.01375404530744337</v>
+        <v>1.3754045307443371E-2</v>
       </c>
       <c r="AG27">
-        <v>0.03559870550161812</v>
+        <v>3.5598705501618123E-2</v>
       </c>
       <c r="AH27">
-        <v>0.7250409165302782</v>
+        <v>0.72504091653027825</v>
       </c>
       <c r="AI27">
-        <v>0.7588235294117647</v>
+        <v>0.75882352941176467</v>
       </c>
       <c r="AJ27">
-        <v>0.5770609318996416</v>
+        <v>0.57706093189964158</v>
       </c>
       <c r="AK27">
-        <v>0.725130890052356</v>
+        <v>0.72513089005235598</v>
       </c>
       <c r="AL27">
-        <v>0.8175559380378657</v>
+        <v>0.81755593803786575</v>
       </c>
       <c r="AM27">
-        <v>0.6547811993517018</v>
+        <v>0.65478119935170176</v>
       </c>
       <c r="AN27">
-        <v>0.2775974025974026</v>
+        <v>0.27759740259740262</v>
       </c>
       <c r="AO27">
-        <v>0.2831423895253682</v>
+        <v>0.28314238952536819</v>
       </c>
       <c r="AP27">
         <v>0.6618122977346278</v>
       </c>
       <c r="AQ27">
-        <v>0.4338235294117647</v>
+        <v>0.43382352941176472</v>
       </c>
       <c r="AR27">
-        <v>0.6186844613918017</v>
+        <v>0.61868446139180167</v>
       </c>
       <c r="AS27">
         <v>1</v>
@@ -7684,140 +7841,138 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Tabasco</t>
-        </is>
+    <row r="28" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>113</v>
       </c>
       <c r="B28">
-        <v>0.9966442953020134</v>
+        <v>0.99664429530201337</v>
       </c>
       <c r="C28">
-        <v>0.2614503816793893</v>
+        <v>0.26145038167938928</v>
       </c>
       <c r="D28">
-        <v>0.3962264150943396</v>
+        <v>0.39622641509433959</v>
       </c>
       <c r="E28">
-        <v>0.1035714285714286</v>
+        <v>0.10357142857142861</v>
       </c>
       <c r="F28">
         <v>1834</v>
       </c>
       <c r="G28">
-        <v>0.1091190392030476</v>
+        <v>0.10911903920304759</v>
       </c>
       <c r="H28">
         <v>15207</v>
       </c>
       <c r="I28">
-        <v>0.01644214376882008</v>
+        <v>1.644214376882008E-2</v>
       </c>
       <c r="J28">
-        <v>0.103125</v>
+        <v>0.10312499999999999</v>
       </c>
       <c r="K28">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="L28">
-        <v>0.009375</v>
+        <v>9.3749999999999997E-3</v>
       </c>
       <c r="M28">
-        <v>0.05625</v>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="N28">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O28">
-        <v>0.003125</v>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="P28">
-        <v>0.178125</v>
+        <v>0.17812500000000001</v>
       </c>
       <c r="Q28">
-        <v>0.8525519848771267</v>
+        <v>0.85255198487712669</v>
       </c>
       <c r="R28">
         <v>0.1228733459357278</v>
       </c>
       <c r="S28">
-        <v>0.509090909090909</v>
+        <v>0.50909090909090904</v>
       </c>
       <c r="T28">
         <v>0.3148854961832061</v>
       </c>
       <c r="U28">
-        <v>0.3988549618320611</v>
+        <v>0.39885496183206109</v>
       </c>
       <c r="V28">
-        <v>0.2614503816793893</v>
+        <v>0.26145038167938928</v>
       </c>
       <c r="W28">
-        <v>0.02480916030534351</v>
+        <v>2.4809160305343511E-2</v>
       </c>
       <c r="X28">
-        <v>0.433206106870229</v>
+        <v>0.43320610687022898</v>
       </c>
       <c r="Y28">
-        <v>0.436697247706422</v>
+        <v>0.43669724770642199</v>
       </c>
       <c r="Z28">
-        <v>0.3924050632911392</v>
+        <v>0.39240506329113922</v>
       </c>
       <c r="AA28">
-        <v>0.3196202531645569</v>
+        <v>0.31962025316455689</v>
       </c>
       <c r="AB28">
-        <v>0.2879746835443038</v>
+        <v>0.28797468354430378</v>
       </c>
       <c r="AC28">
-        <v>0.3375394321766562</v>
+        <v>0.33753943217665622</v>
       </c>
       <c r="AD28">
-        <v>0.3091482649842272</v>
+        <v>0.30914826498422721</v>
       </c>
       <c r="AE28">
-        <v>0.1419558359621451</v>
+        <v>0.14195583596214509</v>
       </c>
       <c r="AF28">
-        <v>0.09779179810725552</v>
+        <v>9.7791798107255523E-2</v>
       </c>
       <c r="AG28">
         <v>0.1135646687697161</v>
       </c>
       <c r="AH28">
-        <v>0.8181818181818182</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="AI28">
-        <v>0.7607655502392344</v>
+        <v>0.76076555023923442</v>
       </c>
       <c r="AJ28">
-        <v>0.4963503649635037</v>
+        <v>0.49635036496350371</v>
       </c>
       <c r="AK28">
-        <v>0.8461538461538461</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="AL28">
-        <v>0.6782608695652174</v>
+        <v>0.67826086956521736</v>
       </c>
       <c r="AM28">
-        <v>0.5840336134453782</v>
+        <v>0.58403361344537819</v>
       </c>
       <c r="AN28">
         <v>0.2109704641350211</v>
       </c>
       <c r="AO28">
-        <v>0.3813559322033898</v>
+        <v>0.38135593220338981</v>
       </c>
       <c r="AP28">
-        <v>0.4008438818565401</v>
+        <v>0.40084388185654007</v>
       </c>
       <c r="AQ28">
         <v>0.2032520325203252</v>
       </c>
       <c r="AR28">
-        <v>0.5287958115183246</v>
+        <v>0.52879581151832455</v>
       </c>
       <c r="AS28">
         <v>1</v>
@@ -7949,83 +8104,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Tamaulipas</t>
-        </is>
+    <row r="29" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>114</v>
       </c>
       <c r="B29">
-        <v>0.9754098360655737</v>
+        <v>0.97540983606557374</v>
       </c>
       <c r="C29">
-        <v>0.1904761904761905</v>
+        <v>0.19047619047619049</v>
       </c>
       <c r="D29">
-        <v>0.4011627906976744</v>
+        <v>0.40116279069767441</v>
       </c>
       <c r="E29">
-        <v>0.1709677419354839</v>
+        <v>0.17096774193548389</v>
       </c>
       <c r="F29">
         <v>2371</v>
       </c>
       <c r="G29">
-        <v>0.03769999298572663</v>
+        <v>3.7699992985726627E-2</v>
       </c>
       <c r="H29">
         <v>11019</v>
       </c>
       <c r="I29">
-        <v>0.003606621078189695</v>
+        <v>3.6066210781896951E-3</v>
       </c>
       <c r="J29">
         <v>0.05</v>
       </c>
       <c r="K29">
-        <v>0.06666666666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="L29">
-        <v>0.02777777777777778</v>
+        <v>2.777777777777778E-2</v>
       </c>
       <c r="M29">
-        <v>0.3555555555555556</v>
+        <v>0.35555555555555562</v>
       </c>
       <c r="N29">
-        <v>0.06666666666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
-        <v>0.06111111111111111</v>
+        <v>6.1111111111111109E-2</v>
       </c>
       <c r="Q29">
-        <v>0.5183946488294314</v>
+        <v>0.51839464882943143</v>
       </c>
       <c r="R29">
-        <v>0.4214046822742475</v>
+        <v>0.42140468227424749</v>
       </c>
       <c r="S29">
         <v>0.2142857142857143</v>
       </c>
       <c r="T29">
-        <v>0.3516483516483517</v>
+        <v>0.35164835164835168</v>
       </c>
       <c r="U29">
-        <v>0.2747252747252747</v>
+        <v>0.27472527472527469</v>
       </c>
       <c r="V29">
-        <v>0.1904761904761905</v>
+        <v>0.19047619047619049</v>
       </c>
       <c r="W29">
-        <v>0.1831501831501831</v>
+        <v>0.18315018315018311</v>
       </c>
       <c r="X29">
-        <v>0.5934065934065934</v>
+        <v>0.59340659340659341</v>
       </c>
       <c r="Y29">
-        <v>0.4466666666666667</v>
+        <v>0.44666666666666671</v>
       </c>
       <c r="Z29">
         <v>0.3707865168539326</v>
@@ -8040,49 +8193,49 @@
         <v>0.2711864406779661</v>
       </c>
       <c r="AD29">
-        <v>0.4745762711864407</v>
+        <v>0.47457627118644069</v>
       </c>
       <c r="AE29">
-        <v>0.06214689265536723</v>
+        <v>6.2146892655367228E-2</v>
       </c>
       <c r="AF29">
-        <v>0.04519774011299435</v>
+        <v>4.519774011299435E-2</v>
       </c>
       <c r="AG29">
-        <v>0.1468926553672316</v>
+        <v>0.14689265536723159</v>
       </c>
       <c r="AH29">
-        <v>0.7604166666666666</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="AI29">
-        <v>0.7866666666666666</v>
+        <v>0.78666666666666663</v>
       </c>
       <c r="AJ29">
-        <v>0.4423076923076923</v>
+        <v>0.44230769230769229</v>
       </c>
       <c r="AK29">
         <v>0.76</v>
       </c>
       <c r="AL29">
-        <v>0.6693548387096774</v>
+        <v>0.66935483870967738</v>
       </c>
       <c r="AM29">
-        <v>0.5488721804511278</v>
+        <v>0.54887218045112784</v>
       </c>
       <c r="AN29">
-        <v>0.2611940298507462</v>
+        <v>0.26119402985074619</v>
       </c>
       <c r="AO29">
-        <v>0.3233082706766917</v>
+        <v>0.32330827067669171</v>
       </c>
       <c r="AP29">
-        <v>0.3955223880597015</v>
+        <v>0.39552238805970152</v>
       </c>
       <c r="AQ29">
         <v>0.15</v>
       </c>
       <c r="AR29">
-        <v>0.5315315315315315</v>
+        <v>0.53153153153153154</v>
       </c>
       <c r="AS29">
         <v>1</v>
@@ -8214,134 +8367,132 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Tlaxcala</t>
-        </is>
+    <row r="30" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>115</v>
       </c>
       <c r="B30">
-        <v>0.9808429118773946</v>
+        <v>0.98084291187739459</v>
       </c>
       <c r="C30">
-        <v>0.1683991683991684</v>
+        <v>0.16839916839916841</v>
       </c>
       <c r="D30">
         <v>0.1397849462365591</v>
       </c>
       <c r="E30">
-        <v>0.1448692152917505</v>
+        <v>0.14486921529175051</v>
       </c>
       <c r="F30">
         <v>447</v>
       </c>
       <c r="G30">
-        <v>0.1545524079913989</v>
+        <v>0.15455240799139891</v>
       </c>
       <c r="H30">
         <v>6690</v>
       </c>
       <c r="I30">
-        <v>0.0161221643925954</v>
+        <v>1.6122164392595398E-2</v>
       </c>
       <c r="J30">
-        <v>0.06122448979591837</v>
+        <v>6.1224489795918373E-2</v>
       </c>
       <c r="K30">
-        <v>0.03061224489795918</v>
+        <v>3.0612244897959179E-2</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.1836734693877551</v>
+        <v>0.18367346938775511</v>
       </c>
       <c r="N30">
-        <v>0.05102040816326531</v>
+        <v>5.1020408163265307E-2</v>
       </c>
       <c r="O30">
-        <v>0.01020408163265306</v>
+        <v>1.020408163265306E-2</v>
       </c>
       <c r="P30">
         <v>0.1224489795918367</v>
       </c>
       <c r="Q30">
-        <v>0.75625</v>
+        <v>0.75624999999999998</v>
       </c>
       <c r="R30">
         <v>0.2270833333333333</v>
       </c>
       <c r="S30">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T30">
-        <v>0.3908523908523909</v>
+        <v>0.39085239085239087</v>
       </c>
       <c r="U30">
-        <v>0.3222453222453223</v>
+        <v>0.32224532224532232</v>
       </c>
       <c r="V30">
-        <v>0.1683991683991684</v>
+        <v>0.16839916839916841</v>
       </c>
       <c r="W30">
         <v>0.1185031185031185</v>
       </c>
       <c r="X30">
-        <v>0.6041666666666666</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="Y30">
-        <v>0.4057649667405765</v>
+        <v>0.40576496674057649</v>
       </c>
       <c r="Z30">
         <v>0.2040816326530612</v>
       </c>
       <c r="AA30">
-        <v>0.3061224489795918</v>
+        <v>0.30612244897959179</v>
       </c>
       <c r="AB30">
-        <v>0.4897959183673469</v>
+        <v>0.48979591836734693</v>
       </c>
       <c r="AC30">
-        <v>0.3979591836734694</v>
+        <v>0.39795918367346939</v>
       </c>
       <c r="AD30">
-        <v>0.4489795918367347</v>
+        <v>0.44897959183673469</v>
       </c>
       <c r="AE30">
-        <v>0.07142857142857142</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="AF30">
         <v>0</v>
       </c>
       <c r="AG30">
-        <v>0.08163265306122448</v>
+        <v>8.1632653061224483E-2</v>
       </c>
       <c r="AH30">
-        <v>0.925531914893617</v>
+        <v>0.92553191489361697</v>
       </c>
       <c r="AI30">
         <v>0.9096774193548387</v>
       </c>
       <c r="AJ30">
-        <v>0.8024691358024691</v>
+        <v>0.80246913580246915</v>
       </c>
       <c r="AK30">
-        <v>0.9122807017543859</v>
+        <v>0.91228070175438591</v>
       </c>
       <c r="AL30">
-        <v>0.5813953488372093</v>
+        <v>0.58139534883720934</v>
       </c>
       <c r="AM30">
-        <v>0.459016393442623</v>
+        <v>0.45901639344262302</v>
       </c>
       <c r="AN30">
-        <v>0.09289617486338798</v>
+        <v>9.2896174863387984E-2</v>
       </c>
       <c r="AO30">
-        <v>0.5934065934065934</v>
+        <v>0.59340659340659341</v>
       </c>
       <c r="AP30">
-        <v>0.3497267759562842</v>
+        <v>0.34972677595628421</v>
       </c>
       <c r="AQ30">
         <v>0.1333333333333333</v>
@@ -8479,14 +8630,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Veracruz de Ignacio de la Llave</t>
-        </is>
+    <row r="31" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>116</v>
       </c>
       <c r="B31">
-        <v>0.9844236760124611</v>
+        <v>0.98442367601246106</v>
       </c>
       <c r="C31">
         <v>0.2667660208643815</v>
@@ -8501,13 +8650,13 @@
         <v>4882</v>
       </c>
       <c r="G31">
-        <v>0.08105795044551926</v>
+        <v>8.1057950445519264E-2</v>
       </c>
       <c r="H31">
         <v>27244</v>
       </c>
       <c r="I31">
-        <v>0.00604275566219137</v>
+        <v>6.0427556621913698E-3</v>
       </c>
       <c r="J31">
         <v>0.1</v>
@@ -8516,7 +8665,7 @@
         <v>0.1157894736842105</v>
       </c>
       <c r="L31">
-        <v>0.03157894736842105</v>
+        <v>3.1578947368421047E-2</v>
       </c>
       <c r="M31">
         <v>0.1789473684210526</v>
@@ -8525,25 +8674,25 @@
         <v>0.1210526315789474</v>
       </c>
       <c r="O31">
-        <v>0.005263157894736842</v>
+        <v>5.263157894736842E-3</v>
       </c>
       <c r="P31">
-        <v>0.05789473684210526</v>
+        <v>5.7894736842105263E-2</v>
       </c>
       <c r="Q31">
-        <v>0.7430555555555556</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="R31">
-        <v>0.2263888888888889</v>
+        <v>0.22638888888888889</v>
       </c>
       <c r="S31">
-        <v>0.3916666666666667</v>
+        <v>0.39166666666666672</v>
       </c>
       <c r="T31">
-        <v>0.2622950819672131</v>
+        <v>0.26229508196721307</v>
       </c>
       <c r="U31">
-        <v>0.360655737704918</v>
+        <v>0.36065573770491799</v>
       </c>
       <c r="V31">
         <v>0.2667660208643815</v>
@@ -8555,43 +8704,43 @@
         <v>0.5313432835820896</v>
       </c>
       <c r="Y31">
-        <v>0.3717579250720461</v>
+        <v>0.37175792507204608</v>
       </c>
       <c r="Z31">
-        <v>0.5054945054945055</v>
+        <v>0.50549450549450547</v>
       </c>
       <c r="AA31">
-        <v>0.2582417582417583</v>
+        <v>0.25824175824175832</v>
       </c>
       <c r="AB31">
-        <v>0.2362637362637363</v>
+        <v>0.23626373626373631</v>
       </c>
       <c r="AC31">
-        <v>0.2459893048128342</v>
+        <v>0.24598930481283421</v>
       </c>
       <c r="AD31">
-        <v>0.3475935828877005</v>
+        <v>0.34759358288770048</v>
       </c>
       <c r="AE31">
-        <v>0.09625668449197861</v>
+        <v>9.6256684491978606E-2</v>
       </c>
       <c r="AF31">
-        <v>0.0855614973262032</v>
+        <v>8.5561497326203204E-2</v>
       </c>
       <c r="AG31">
         <v>0.2245989304812834</v>
       </c>
       <c r="AH31">
-        <v>0.8181818181818182</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="AI31">
-        <v>0.8512396694214877</v>
+        <v>0.85123966942148765</v>
       </c>
       <c r="AJ31">
-        <v>0.5139664804469274</v>
+        <v>0.51396648044692739</v>
       </c>
       <c r="AK31">
-        <v>0.9594594594594594</v>
+        <v>0.95945945945945943</v>
       </c>
       <c r="AL31">
         <v>0.7350427350427351</v>
@@ -8603,13 +8752,13 @@
         <v>0.2265625</v>
       </c>
       <c r="AO31">
-        <v>0.4767441860465116</v>
+        <v>0.47674418604651159</v>
       </c>
       <c r="AP31">
-        <v>0.2403100775193799</v>
+        <v>0.24031007751937991</v>
       </c>
       <c r="AQ31">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="AR31">
         <v>0.1954022988505747</v>
@@ -8744,14 +8893,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Yucatán</t>
-        </is>
+    <row r="32" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>117</v>
       </c>
       <c r="B32">
-        <v>0.9473684210526315</v>
+        <v>0.94736842105263153</v>
       </c>
       <c r="C32">
         <v>0.1445086705202312</v>
@@ -8766,79 +8913,79 @@
         <v>161</v>
       </c>
       <c r="G32">
-        <v>0.3443862564029117</v>
+        <v>0.34438625640291171</v>
       </c>
       <c r="H32">
         <v>778</v>
       </c>
       <c r="I32">
-        <v>0.01206541411001266</v>
+        <v>1.206541411001266E-2</v>
       </c>
       <c r="J32">
-        <v>0.1428571428571428</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="K32">
-        <v>0.007936507936507936</v>
+        <v>7.9365079365079361E-3</v>
       </c>
       <c r="L32">
-        <v>0.007936507936507936</v>
+        <v>7.9365079365079361E-3</v>
       </c>
       <c r="M32">
-        <v>0.007936507936507936</v>
+        <v>7.9365079365079361E-3</v>
       </c>
       <c r="N32">
         <v>0.1111111111111111</v>
       </c>
       <c r="O32">
-        <v>0.007936507936507936</v>
+        <v>7.9365079365079361E-3</v>
       </c>
       <c r="P32">
-        <v>0.03174603174603174</v>
+        <v>3.1746031746031737E-2</v>
       </c>
       <c r="Q32">
-        <v>0.8888888888888888</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="R32">
         <v>0.1111111111111111</v>
       </c>
       <c r="S32">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="T32">
-        <v>0.3872832369942196</v>
+        <v>0.38728323699421963</v>
       </c>
       <c r="U32">
-        <v>0.4219653179190752</v>
+        <v>0.42196531791907521</v>
       </c>
       <c r="V32">
         <v>0.1445086705202312</v>
       </c>
       <c r="W32">
-        <v>0.04624277456647399</v>
+        <v>4.6242774566473993E-2</v>
       </c>
       <c r="X32">
-        <v>0.4450867052023121</v>
+        <v>0.44508670520231208</v>
       </c>
       <c r="Y32">
-        <v>0.4682080924855491</v>
+        <v>0.46820809248554912</v>
       </c>
       <c r="Z32">
         <v>0.4344262295081967</v>
       </c>
       <c r="AA32">
-        <v>0.2704918032786885</v>
+        <v>0.27049180327868849</v>
       </c>
       <c r="AB32">
-        <v>0.2950819672131147</v>
+        <v>0.29508196721311469</v>
       </c>
       <c r="AC32">
         <v>0.24</v>
       </c>
       <c r="AD32">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="AE32">
-        <v>0.144</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="AF32">
         <v>0.12</v>
@@ -8847,7 +8994,7 @@
         <v>0.2</v>
       </c>
       <c r="AH32">
-        <v>0.835820895522388</v>
+        <v>0.83582089552238803</v>
       </c>
       <c r="AI32">
         <v>0.8904109589041096</v>
@@ -8859,25 +9006,25 @@
         <v>1</v>
       </c>
       <c r="AL32">
-        <v>0.717948717948718</v>
+        <v>0.71794871794871795</v>
       </c>
       <c r="AM32">
-        <v>0.5802469135802469</v>
+        <v>0.58024691358024694</v>
       </c>
       <c r="AN32">
-        <v>0.2222222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="AO32">
-        <v>0.5061728395061729</v>
+        <v>0.50617283950617287</v>
       </c>
       <c r="AP32">
-        <v>0.5802469135802469</v>
+        <v>0.58024691358024694</v>
       </c>
       <c r="AQ32">
-        <v>0.2291666666666667</v>
+        <v>0.22916666666666671</v>
       </c>
       <c r="AR32">
-        <v>0.3582089552238806</v>
+        <v>0.35820895522388058</v>
       </c>
       <c r="AS32">
         <v>1</v>
@@ -9009,140 +9156,138 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Zacatecas</t>
-        </is>
+    <row r="33" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>118</v>
       </c>
       <c r="B33">
-        <v>0.9925093632958801</v>
+        <v>0.99250936329588013</v>
       </c>
       <c r="C33">
         <v>0.176980198019802</v>
       </c>
       <c r="D33">
-        <v>0.321969696969697</v>
+        <v>0.32196969696969702</v>
       </c>
       <c r="E33">
-        <v>0.1502242152466368</v>
+        <v>0.15022421524663679</v>
       </c>
       <c r="F33">
         <v>2484</v>
       </c>
       <c r="G33">
-        <v>0.07686825392067805</v>
+        <v>7.6868253920678045E-2</v>
       </c>
       <c r="H33">
         <v>5896</v>
       </c>
       <c r="I33">
-        <v>0.02761449578904019</v>
+        <v>2.761449578904019E-2</v>
       </c>
       <c r="J33">
-        <v>0.09586466165413533</v>
+        <v>9.5864661654135333E-2</v>
       </c>
       <c r="K33">
-        <v>0.231203007518797</v>
+        <v>0.23120300751879699</v>
       </c>
       <c r="L33">
-        <v>0.02255639097744361</v>
+        <v>2.2556390977443611E-2</v>
       </c>
       <c r="M33">
-        <v>0.3176691729323308</v>
+        <v>0.31766917293233082</v>
       </c>
       <c r="N33">
-        <v>0.1052631578947368</v>
+        <v>0.10526315789473679</v>
       </c>
       <c r="O33">
-        <v>0.003759398496240601</v>
+        <v>3.7593984962406009E-3</v>
       </c>
       <c r="P33">
-        <v>0.09210526315789473</v>
+        <v>9.2105263157894732E-2</v>
       </c>
       <c r="Q33">
-        <v>0.5457627118644067</v>
+        <v>0.54576271186440672</v>
       </c>
       <c r="R33">
-        <v>0.3480225988700565</v>
+        <v>0.34802259887005649</v>
       </c>
       <c r="S33">
-        <v>0.2582417582417583</v>
+        <v>0.25824175824175832</v>
       </c>
       <c r="T33">
-        <v>0.3391089108910891</v>
+        <v>0.33910891089108908</v>
       </c>
       <c r="U33">
-        <v>0.1423267326732673</v>
+        <v>0.14232673267326729</v>
       </c>
       <c r="V33">
         <v>0.176980198019802</v>
       </c>
       <c r="W33">
-        <v>0.3415841584158416</v>
+        <v>0.34158415841584161</v>
       </c>
       <c r="X33">
         <v>0.6042183622828784</v>
       </c>
       <c r="Y33">
-        <v>0.4807692307692308</v>
+        <v>0.48076923076923078</v>
       </c>
       <c r="Z33">
-        <v>0.4223484848484849</v>
+        <v>0.42234848484848492</v>
       </c>
       <c r="AA33">
-        <v>0.2462121212121212</v>
+        <v>0.24621212121212119</v>
       </c>
       <c r="AB33">
-        <v>0.3314393939393939</v>
+        <v>0.33143939393939392</v>
       </c>
       <c r="AC33">
-        <v>0.2396856581532416</v>
+        <v>0.23968565815324161</v>
       </c>
       <c r="AD33">
-        <v>0.3497053045186641</v>
+        <v>0.34970530451866411</v>
       </c>
       <c r="AE33">
-        <v>0.08055009823182711</v>
+        <v>8.0550098231827114E-2</v>
       </c>
       <c r="AF33">
-        <v>0.02357563850687623</v>
+        <v>2.3575638506876231E-2</v>
       </c>
       <c r="AG33">
-        <v>0.3064833005893909</v>
+        <v>0.30648330058939088</v>
       </c>
       <c r="AH33">
-        <v>0.8102189781021898</v>
+        <v>0.81021897810218979</v>
       </c>
       <c r="AI33">
-        <v>0.8695652173913043</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="AJ33">
         <v>0.6223776223776224</v>
       </c>
       <c r="AK33">
-        <v>0.8840579710144928</v>
+        <v>0.88405797101449279</v>
       </c>
       <c r="AL33">
-        <v>0.6437659033078881</v>
+        <v>0.64376590330788808</v>
       </c>
       <c r="AM33">
-        <v>0.5484633569739953</v>
+        <v>0.54846335697399529</v>
       </c>
       <c r="AN33">
-        <v>0.1745283018867924</v>
+        <v>0.17452830188679239</v>
       </c>
       <c r="AO33">
-        <v>0.3309692671394799</v>
+        <v>0.33096926713947988</v>
       </c>
       <c r="AP33">
-        <v>0.3552941176470588</v>
+        <v>0.35529411764705882</v>
       </c>
       <c r="AQ33">
-        <v>0.09049773755656108</v>
+        <v>9.0497737556561084E-2</v>
       </c>
       <c r="AR33">
-        <v>0.4868421052631579</v>
+        <v>0.48684210526315791</v>
       </c>
       <c r="AS33">
         <v>1</v>
@@ -9274,23 +9419,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Promedio Nacional</t>
-        </is>
+    <row r="34" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>119</v>
       </c>
       <c r="B34">
-        <v>0.9866496662416561</v>
+        <v>0.98664966624165606</v>
       </c>
       <c r="C34">
         <v>0.2300996993195126</v>
       </c>
       <c r="D34">
-        <v>0.3450264675673541</v>
+        <v>0.34502646756735411</v>
       </c>
       <c r="E34">
-        <v>0.185297669142669</v>
+        <v>0.18529766914266901</v>
       </c>
       <c r="F34">
         <v>104227</v>
@@ -9302,40 +9445,40 @@
         <v>626829</v>
       </c>
       <c r="I34">
-        <v>0.0151845687337927</v>
+        <v>1.5184568733792699E-2</v>
       </c>
       <c r="J34">
-        <v>0.1080357825521829</v>
+        <v>0.108035782552183</v>
       </c>
       <c r="K34">
-        <v>0.04205214465937763</v>
+        <v>4.2052144659377629E-2</v>
       </c>
       <c r="L34">
-        <v>0.01338022784616561</v>
+        <v>1.338022784616561E-2</v>
       </c>
       <c r="M34">
-        <v>0.08723908555699977</v>
+        <v>8.7239085556999774E-2</v>
       </c>
       <c r="N34">
-        <v>0.1315085251165991</v>
+        <v>0.13150852511659911</v>
       </c>
       <c r="O34">
-        <v>0.002676045569233122</v>
+        <v>2.6760455692331222E-3</v>
       </c>
       <c r="P34">
-        <v>0.1123174554629559</v>
+        <v>0.11231745546295591</v>
       </c>
       <c r="Q34">
-        <v>0.8005914166763939</v>
+        <v>0.80059141667639389</v>
       </c>
       <c r="R34">
-        <v>0.1716275631298393</v>
+        <v>0.17162756312983929</v>
       </c>
       <c r="S34">
-        <v>0.4384098544232923</v>
+        <v>0.43840985442329228</v>
       </c>
       <c r="T34">
-        <v>0.3474442158569394</v>
+        <v>0.34744421585693941</v>
       </c>
       <c r="U34">
         <v>0.2729071055546764</v>
@@ -9344,70 +9487,70 @@
         <v>0.2300996993195126</v>
       </c>
       <c r="W34">
-        <v>0.1495489792688716</v>
+        <v>0.14954897926887159</v>
       </c>
       <c r="X34">
-        <v>0.4825738329628453</v>
+        <v>0.48257383296284528</v>
       </c>
       <c r="Y34">
-        <v>0.4333177896945675</v>
+        <v>0.43331778969456752</v>
       </c>
       <c r="Z34">
-        <v>0.3524315041760986</v>
+        <v>0.35243150417609859</v>
       </c>
       <c r="AA34">
-        <v>0.2709390367652799</v>
+        <v>0.27093903676527992</v>
       </c>
       <c r="AB34">
         <v>0.3766294590586215</v>
       </c>
       <c r="AC34">
-        <v>0.3130300693909021</v>
+        <v>0.31303006939090211</v>
       </c>
       <c r="AD34">
-        <v>0.3585196607555898</v>
+        <v>0.35851966075558978</v>
       </c>
       <c r="AE34">
         <v>0.1113338473400154</v>
       </c>
       <c r="AF34">
-        <v>0.06229760986892829</v>
+        <v>6.2297609868928287E-2</v>
       </c>
       <c r="AG34">
         <v>0.1548188126445644</v>
       </c>
       <c r="AH34">
-        <v>0.7905943976315191</v>
+        <v>0.79059439763151906</v>
       </c>
       <c r="AI34">
-        <v>0.8309654972455784</v>
+        <v>0.83096549724557844</v>
       </c>
       <c r="AJ34">
-        <v>0.5919876203576341</v>
+        <v>0.59198762035763408</v>
       </c>
       <c r="AK34">
-        <v>0.8103174603174603</v>
+        <v>0.81031746031746033</v>
       </c>
       <c r="AL34">
-        <v>0.6571128308015668</v>
+        <v>0.65711283080156679</v>
       </c>
       <c r="AM34">
-        <v>0.5133165377001979</v>
+        <v>0.51331653770019792</v>
       </c>
       <c r="AN34">
-        <v>0.175310642895732</v>
+        <v>0.17531064289573201</v>
       </c>
       <c r="AO34">
-        <v>0.4220391162622238</v>
+        <v>0.42203911626222379</v>
       </c>
       <c r="AP34">
-        <v>0.4137683113148198</v>
+        <v>0.41376831131481978</v>
       </c>
       <c r="AQ34">
-        <v>0.1594002306805075</v>
+        <v>0.15940023068050749</v>
       </c>
       <c r="AR34">
-        <v>0.4404674046740467</v>
+        <v>0.44046740467404671</v>
       </c>
     </row>
   </sheetData>
@@ -9416,6 +9559,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="945da4d08d468567d8c9e61b4059a70e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd61a94cdeda55e8e0dfec1c50450dee" ns2:_="" ns3:_="">
     <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
@@ -9658,19 +9810,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBEAEB48-A7BF-4061-B375-9059415E6465}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BFDF866-B9B3-4D34-A262-359B4D608404}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BFDF866-B9B3-4D34-A262-359B4D608404}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBEAEB48-A7BF-4061-B375-9059415E6465}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>